--- a/experiment_results/5250LIBERTYELLIS.xlsx
+++ b/experiment_results/5250LIBERTYELLIS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1512"/>
+  <dimension ref="A1:I1417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Aerial Tours', 'City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'City Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14946,7 +14946,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31003P15</t>
+          <t>PRODUCTCODE: 31003P12</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Gain exclusive access to the Statue of Liberty on this 4-hour, private tour. Learn how a gift of friendship to the United States has become one of the modern wonders of the world. Take a short boat ride to Ellis Island and hear first-hand stories about the most famous and active immigration hubs.</t>
+          <t>Summarized description: The Statue of Liberty and Ellis Island are two of New York's most historic attractions. Enjoy priority boarding on the ferry to Liberty Island and explore Liberty Island. Then, visit Ellis Island, where you’ll learn about the vast immigration that took place between 1892 and 1954.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title:  Private Statue of Liberty and Ellis Island Tour</t>
+          <t xml:space="preserve">Title: Choose Your Access Statue of Liberty and Ellis Island Small-Group Tour </t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 279</t>
+          <t>TotalReviews: 346</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 37940P1</t>
+          <t>PRODUCTCODE: 62527P7</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Explore New York City's most popular attractions with this guided, full-day, riding and walking tour. Visit the Statue of Liberty, St Patrick's Cathedral, Take a walking tour of the 911 Memorial,a walk in Little Italy.</t>
+          <t>Summarized description: Experience the Statue of Liberty and the Immigration Museum at Ellis Island. Learn their history and their importance to this country. Enjoy breath-taking views of New York City skyline.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: NYC Tour with Statue of Liberty Visit</t>
+          <t>Title: Statue of Liberty Tour with Ellis Island &amp; Museum of Immigration</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 253</t>
+          <t>TotalReviews: 302</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P92</t>
+          <t>PRODUCTCODE: 31003P15</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Set sail to see Lady Liberty with up close views from the water. Cruise next to Ellis Island, the most famous entry point to the United States. See One World Observatory, the Brooklyn Bridge and more.</t>
+          <t>Summarized description: Gain exclusive access to the Statue of Liberty on this 4-hour, private tour. Learn how a gift of friendship to the United States has become one of the modern wonders of the world. Take a short boat ride to Ellis Island and hear first-hand stories about the most famous and active immigration hubs.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty 60-Minute Sightseeing Cruise</t>
+          <t>Title:  Private Statue of Liberty and Ellis Island Tour</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 235</t>
+          <t>TotalReviews: 279</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2625HOHOCRU</t>
+          <t>PRODUCTCODE: 15081P224</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to see the city is with a hop-on-hop-off bus tour. Bus tour includes spots along the way at all the major attractions. Includes a ticket to the Statue of Liberty and Ellis Island.</t>
+          <t>Summarized description: Enjoy a ferry ride from Manhattan’s Battery Park, a self-guided audio tour in 9 languages. Grab your ticket to the Statue of Liberty and Ellis Island in advance and avoid the long lines.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: New York City Hop-On Hop-Off Bus Tour with Liberty Island Ferry</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island Ferry Ticket-1st tour 8:30am</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 232</t>
+          <t>TotalReviews: 204</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5026ALL</t>
+          <t>PRODUCTCODE: 5637P13</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: The New York City Hop-On Hop-Off Tour and Harbor Cruise are available for 48 hours. There are over 40 stops around the city. For more value, opt for the upgrade to add one attraction to your tour.</t>
+          <t>Summarized description: Discover the origin, design, and construction of these iconic American destinations. Listen to the stories of immigrants who made their way through Ellis Island. Enjoy gorgeous and panoramic views of the Statue of Liberty and New York harbor.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: New York City Hop-on Hop-off Tour and Harbor Cruise</t>
+          <t>Title: Secrets of the Statue of Liberty and Ellis Island Guided Tour</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 205</t>
+          <t>TotalReviews: 94</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P224</t>
+          <t>PRODUCTCODE: 7167STATUEOWO</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a ferry ride from Manhattan’s Battery Park, a self-guided audio tour in 9 languages. Grab your ticket to the Statue of Liberty and Ellis Island in advance and avoid the long lines.</t>
+          <t>Summarized description: Full-day excursion begins with a ferry ride to the Statue of Liberty and Ellis Island. Visit 9/11-related sites like St Paul's Chapel, the Fireman's Memorial and the National September 11 Memorial. End your tour at the One World Observatory.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island Ferry Ticket-1st tour 8:30am</t>
+          <t>Title: Statue of Liberty and Ellis Island with One World Observatory</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 204</t>
+          <t>TotalReviews: 88</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Aerial Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3763VIPHELI</t>
+          <t>PRODUCTCODE: 13616P16</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Get unbeatable views of Manhattan from the sky and water on this exclusive VIP tour in New York City. Hop aboard a luxury helicopter and soar over the Brooklyn Bridge, the Empire State Building, Ellis Island and Central Park. After your flight, enjoy more spectacular views of the city skyline on a New York Harbor cruise and see the majestic Statue of Liberty.</t>
+          <t>Summarized description: Includes a live guide at both Statue of Liberty &amp; Ellis Island. You'll be entertained as you learn all about both iconic sites. Book in advance - skip the long ticketing lines and pick up your tickets when you meet your guide.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: VIP: NYC Helicopter Flight and Statue of Liberty Cruise</t>
+          <t>Title: Statue of Liberty Express Guided Tour</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 167</t>
+          <t>TotalReviews: 53</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P17</t>
+          <t>PRODUCTCODE: 74526P20</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: 5-hour Fully Guided Tour begins with meeting your tour guide at 24 State Street. Make your way to the Statue of Liberty and Ellis Island Ferry. Continue on the Ellis Island where you will hear interesting facts and history.</t>
+          <t>Summarized description: Liberty Island Statue of Liberty and Ellis Island Immigration Museum. Tickets are general admission. Audio guided tours provide in 13 difference separate languages. Tickets include a 30 minute orientation of both sites.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Ellis Island &amp; 9/11 Pools-1st Tour 8:30am</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island Ferry Tickets - 8:30am 1st Trip</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 152</t>
+          <t>TotalReviews: 37</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 103533P4</t>
+          <t>PRODUCTCODE: 7167P20</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: 30 minute speedboat tour of New York Harbor. Boats stop multiple times for you to get best photos of Manhattan. Daily departures from North Cove Marina downtown.</t>
+          <t>Summarized description: Visit Ellis Island and Liberty Island on this combo excursion. Includes ferry rides, entrance tickets to both the Statue of Liberty Museum and the Ellis Island Immigration Museum.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Brooklyn Bridge Boat Tour</t>
+          <t>Title: Statue of Liberty Tour: Museum, Statue Grounds &amp; Battery Park</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 139</t>
+          <t>TotalReviews: 31</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7290P14</t>
+          <t>PRODUCTCODE: 74526P19</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Downtown Tour (Same Day) + Statue of Liberty Cruise is the right choice. Limited City Pass (48 Hours) offers Downtown Tour (hop-on hop-off), Uptown &amp; Harlem, and Central Park bike rental.</t>
+          <t>Summarized description: Save precious time by pre purchasing reserve-line tickets for the ferry to Liberty and Ellis islands. Take in views of New York Harbor during the ferry ride across. Upgrade to enjoy a guide with knowledge and history of of both the Statue of Liberty &amp; Ellis Island.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Hop-On Hop-Off New York Bus Tour with Statue of Liberty Ticket and More</t>
+          <t xml:space="preserve">Title: Statue of Liberty Express Tour-8:30am Early Morning Departure </t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 134</t>
+          <t>TotalReviews: 30</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7167COMPLETE</t>
+          <t>PRODUCTCODE: 195909P1</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: The Statue of Liberty, Ellis Island and the National September 11 Memorial &amp; Museum are all included in the full-day tour. Take a morning ferry tour, enter the pedestal of Lady Liberty and visit the Ellis Island Immigration Museum. Then take a poignant tour of key 9/11 sites like St Paul’s Chapel.</t>
+          <t>Summarized description: Explore with audio guides in 9 languages or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island in English. Take a 30 minute orientation tour in English of the Statue of Liberty and Ellis Island with a live English speaking tour guide.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Tour and 9/11 Museum Entry</t>
+          <t>Title: Statue of Liberty, Ellis Island &amp; Round trip Ferry</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 132</t>
+          <t>TotalReviews: 28</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7167STATUEOWO</t>
+          <t>PRODUCTCODE: 7167P61</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Full-day excursion begins with a ferry ride to the Statue of Liberty and Ellis Island. Visit 9/11-related sites like St Paul's Chapel, the Fireman's Memorial and the National September 11 Memorial. End your tour at the One World Observatory.</t>
+          <t>Summarized description: The Statue of Liberty's Pedestal offers spectacular views over New York Harbor. Discover the fascinating story of Lady Liberty as you make your way up 215 steps.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island with One World Observatory</t>
+          <t>Title: Statue of Liberty with Pedestal Access &amp; Ellis Island Tour</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 88</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Aerial Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13616P16</t>
+          <t>PRODUCTCODE: 15081P190</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Includes a live guide at both Statue of Liberty &amp; Ellis Island. You'll be entertained as you learn all about both iconic sites. Book in advance - skip the long ticketing lines and pick up your tickets when you meet your guide.</t>
+          <t>Summarized description: Take a 30-minute guided tour of Battery Park and then get guaranteed priority access to the Ferry Reserve line for the Statue of Liberty. Explore with audio guides in 9 different languages.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Express Guided Tour</t>
+          <t>Title: Statue of Liberty Ellis Island PreFerry Tour - 1st Tour 8:30am</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 53</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P20</t>
+          <t>PRODUCTCODE: 15081P162</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Liberty Island Statue of Liberty and Ellis Island Immigration Museum. Tickets are general admission. Audio guided tours provide in 13 difference separate languages. Tickets include a 30 minute orientation of both sites.</t>
+          <t>Summarized description:  Ellis Island was the Gateway to America, and on this tour you will learn more about the journey and the struggle for a new future. The site of the Statue of Liberty brought hope of freedom and peace.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island Ferry Tickets - 8:30am 1st Trip</t>
+          <t xml:space="preserve">Title: Ellis Island &amp; Statue of Liberty Tour - 8:30am First Tour </t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 37</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P22</t>
+          <t>PRODUCTCODE: 108074P1</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Admission to the 9/11 Memorial Museum with Skip the Line access. Admission to the Statue of Liberty and Ellis Island Ferry tickets.</t>
+          <t>Summarized description: YES Tours NYC offers tours of the Statue of Liberty and Ellis Island. All guides have family that came through Ellis Island, and offer expert stories.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: NYC 9/11 Museum &amp; Statue of Liberty Ferry Tickets 8:30am 1st Tour</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 35</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P19</t>
+          <t>PRODUCTCODE: 43656P17</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Save precious time by pre purchasing reserve-line tickets for the ferry to Liberty and Ellis islands. Take in views of New York Harbor during the ferry ride across. Upgrade to enjoy a guide with knowledge and history of of both the Statue of Liberty &amp; Ellis Island.</t>
+          <t>Summarized description: Discover America’s most famous port of entry at Ellis island, including the iconic Statue of Liberty. Retrace the steps of over 12 million immigrants looking for a new life in the United States.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty Express Tour-8:30am Early Morning Departure </t>
+          <t>Title: Statue of Liberty &amp; Ellis Island Tour Semi-Private 8ppl Max</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 30</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P131</t>
+          <t>PRODUCTCODE: 31003P30</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Beat the crowds on an early access tour of New York's famous landmarks. After meeting up with your guide at 8:30am, you will be well on your way to experiencing the 9/11 Memorial, Wall Street, Battery Park and Ellis Island.</t>
+          <t>Summarized description: Small group tour includes exclusive access to the pedestal of the Statue of Liberty. Learn about American Immigration from the late 19th to early 20th Century.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: 9/11 Memorial Statue of Liberty &amp; Ellis Island - 1st tour 8:30am</t>
+          <t>Title: Statue of Liberty and Ellis Island Small-Group Tour in Various Languages</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 30</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P1</t>
+          <t>PRODUCTCODE: 15081P169</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Explore with audio guides in 9 languages or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island in English. Take a 30 minute orientation tour in English of the Statue of Liberty and Ellis Island with a live English speaking tour guide.</t>
+          <t>Summarized description: Explore with audio guides or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island. Take a 30-minute guided tour of Battery Park and then get guaranteed access to the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty, Ellis Island &amp; Round trip Ferry</t>
+          <t>Title: NYC:Statue of Liberty Ellis Island+Roundtrip Ferry 8:30 1st Tour</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 28</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P3</t>
+          <t>PRODUCTCODE: 195909P4</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise around the Statue of Liberty and Ellis Island with the New York City Skyline. 60-minute sightseeing cruise also journeys under the Brooklyn Bridge.</t>
+          <t>Summarized description: Your ticket grants you exclusive access to the Fort Wood section of the monument up to for a truly immersive experience on your own. Take a self-guided tour with audio headsets that come in multiple languages.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island 60 Minute sightseeing Cruise</t>
+          <t>Title: Statue of Liberty and Ellis Island: Skip-the-Line Tickets &amp; round trip Ferry</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P4</t>
+          <t>PRODUCTCODE: 15081P155</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Explore with audio guides or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island. Take a 30-minute guided tour of Battery Park and then get guaranteed access to the Statue of Liberty.</t>
+          <t>Summarized description: See Battery Park, the Statue of Liberty, and Ellis Island. Enjoy optional upgrade to a walking tour to the 9/11 Memorial Pools.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Roundtrip Ferry ticket 1st tour 8:30am</t>
+          <t>Title: Statue of Liberty, Ellis Island Pre-Ferry tour Starts 8:30am</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 22</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7167P61</t>
+          <t>PRODUCTCODE: 62527P25</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: The Statue of Liberty's Pedestal offers spectacular views over New York Harbor. Discover the fascinating story of Lady Liberty as you make your way up 215 steps.</t>
+          <t>Summarized description: Learn about the Statue of Liberty and the Immigration Museum at Ellis Island. Enjoy breath-taking views of the New York City skyline from the Ellis Island observation deck.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty with Pedestal Access &amp; Ellis Island Tour</t>
+          <t>Title: From Battery Park: Statue of Liberty Tour &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Museums']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P134</t>
+          <t>PRODUCTCODE: 15081P149</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: See all that Ellis Island, the Statue of Liberty and Battery Park has to offer in this VIP ACCESS Tour. After meeting your guide at the meeting location, you will then take a 30-minute guided walking tour of Battery Park. Afterward, your guide will escort you through the Reserve Access Line to the statue of Liberty.</t>
+          <t>Summarized description: Visit Ellis Island and Statue of Liberty on this Private fully escorted walking tour. Enjoy a personalized overview of the Battery Park, Liberty Island, Ellis Island, and Ground Zero.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Ellis Island Statue of Liberty Roundtrip Ferry Ride 8:30 1st Tour</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour in Spanish</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P190</t>
+          <t>PRODUCTCODE: 62527P34</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Take a 30-minute guided tour of Battery Park and then get guaranteed priority access to the Ferry Reserve line for the Statue of Liberty. Explore with audio guides in 9 different languages.</t>
+          <t>Summarized description: Learn about the Statue of Liberty and the Immigration Museum at Ellis Island. Enjoy breath-taking views of the New York City skyline from the Ellis Island observation deck.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Ellis Island PreFerry Tour - 1st Tour 8:30am</t>
+          <t>Title: Private tour: Statue of Liberty &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P162</t>
+          <t>PRODUCTCODE: 43656P18</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description:  Ellis Island was the Gateway to America, and on this tour you will learn more about the journey and the struggle for a new future. The site of the Statue of Liberty brought hope of freedom and peace.</t>
+          <t>Summarized description: Explore these New York landmarks on a 3 hour exclusive guided tour. Follow in the footsteps of over 12 million foreigners seeking roads paved with gold in the New World.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Ellis Island &amp; Statue of Liberty Tour - 8:30am First Tour </t>
+          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island - Exclusive Guided Tour </t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P145</t>
+          <t>PRODUCTCODE: 74526P1</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: When you have returned to Battery Park by ferry, you’ll visit the 9/11 Memorial. Visit Ellis Island and Lady liberty with a fully escorted walking tour.</t>
+          <t>Summarized description: Our First Tour meets &amp; departs at 8:30am for an early start of your day and to avoid the big crowds. See two iconic landmarks of American history, Ellis Island &amp; the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Ellis Island Statue of Liberty &amp; 911 Memorial Pools Tour 8:30am </t>
+          <t>Title: Statue of Liberty &amp; Ellis Island Guided Tour-8:30am 1st Departure</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P156</t>
+          <t>PRODUCTCODE: 324821P66</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Exclusive VIP Tour: 911 Memorial &amp; Museum Admission Plus Statue of Liberty. Your tour is fully guided throughout from Battery Park to the Statue ofLiberty.</t>
+          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Take a ferry cruise to Liberty Island and access the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: NYC: Statue of Liberty &amp; 911 Memorial &amp; Museum-8:30am 1st Tour</t>
+          <t>Title: Skip-the-Line Statue of Liberty Private Tour with Tickets</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108074P1</t>
+          <t>PRODUCTCODE: 74526P31</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: YES Tours NYC offers tours of the Statue of Liberty and Ellis Island. All guides have family that came through Ellis Island, and offer expert stories.</t>
+          <t>Summarized description: 9/11 Memorial &amp; Museum honors the nearly 3,000 people killed in the terrorist attacks of September 11, 2001 and February 26, 1993. VIP reserve boarding on ferry to take them to Liberty Island and Ellis Island where they can explore all of the history at their leisure.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island</t>
+          <t>Title: NOW OPEN: Statue of Liberty Cruise &amp; Choice 911 Museum OR Statue of Liberty Tour</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 43656P17</t>
+          <t>PRODUCTCODE: 13616P19</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Discover America’s most famous port of entry at Ellis island, including the iconic Statue of Liberty. Retrace the steps of over 12 million immigrants looking for a new life in the United States.</t>
+          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island Tour Semi-Private 8ppl Max</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31003P30</t>
+          <t>PRODUCTCODE: 70429P1</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Small group tour includes exclusive access to the pedestal of the Statue of Liberty. Learn about American Immigration from the late 19th to early 20th Century.</t>
+          <t>Summarized description: Learn about the history and construction of the Statue of Liberty. Then hop back onto the ferry to experience Ellis Island. Learn about the incredible history of the island and the intense process of immigration to America.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Small-Group Tour in Various Languages</t>
+          <t>Title: Early Access Statue of Liberty and Ellis Island Guided Tour</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P169</t>
+          <t>PRODUCTCODE: 15081P347</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Explore with audio guides or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island. Take a 30-minute guided tour of Battery Park and then get guaranteed access to the Statue of Liberty.</t>
+          <t>Summarized description: Get up close to within 100-feet of the Statue of Liberty and Ellis Island for the most incredible photos opportunities. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park, and more.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: NYC:Statue of Liberty Ellis Island+Roundtrip Ferry 8:30 1st Tour</t>
+          <t>Title: Statue of Liberty and Ellis Island Sunset Cruise in New York Shared Tour</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P4</t>
+          <t>PRODUCTCODE: 162649P3</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Your ticket grants you exclusive access to the Fort Wood section of the monument up to for a truly immersive experience on your own. Take a self-guided tour with audio headsets that come in multiple languages.</t>
+          <t>Summarized description: Ranger guided Liberty and Ellis Island tours and audio tours. Explore the immigration museum to hear the stories about the millions people that arrived in New York in search of a better life. Reserved Access Statue of Liberty Tickets feature a professional concierge that will pick up your tickets.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island: Skip-the-Line Tickets &amp; round trip Ferry</t>
+          <t>Title: Statue of Liberty Pedestal and Ellis Island Skip-the-Line Ticket</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 62527P25</t>
+          <t>PRODUCTCODE: 210206P184</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the Statue of Liberty and the Immigration Museum at Ellis Island. Enjoy breath-taking views of the New York City skyline from the Ellis Island observation deck.</t>
+          <t>Summarized description: The multilingual self-guided tour will allow you to explore both monuments at your own pace. The tour includes a ready-to-go itinerary, GPS navigation and descriptions.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: From Battery Park: Statue of Liberty Tour &amp; Ellis Island</t>
+          <t>Title: Statue of Liberty and Ellis Island Admission Pass in New York</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P149</t>
+          <t>PRODUCTCODE: 15471P9</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Ellis Island and Statue of Liberty on this Private fully escorted walking tour. Enjoy a personalized overview of the Battery Park, Liberty Island, Ellis Island, and Ground Zero.</t>
+          <t>Summarized description: You will always be accompanied by a guide from the beginning of the excursion to the end of it. This tour, although it is not a private tour, will be accompanied at all times by the guide who will explain every detail and monument.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour in Spanish</t>
+          <t>Title: Statue of Liberty Half Day Tour in New York</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P219</t>
+          <t>PRODUCTCODE: 73108P2</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Take a 30-minute guided tour of Battery Park. Learn about the immigrant experience at the Ellis Island Immigration Museum. Visit the 9/11 Memorial &amp; Museum and honor all those who lost their lives in the terror attacks on September 11, 2001.</t>
+          <t>Summarized description: Tour includes the ferry to the Statue of Liberty and entrance inside the pedestal of the statue. Tour includes Ellis Island before traveling to Ellis Island. Have fun on a tour with local New Yorker trying to make it in the arts.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: 9/11 Memorial with Museum &amp; Statue of Liberty Access</t>
+          <t>Title: Private Statue of Liberty and Ellis Island Tour with Local</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 62527P34</t>
+          <t>PRODUCTCODE: 364159P1</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the Statue of Liberty and the Immigration Museum at Ellis Island. Enjoy breath-taking views of the New York City skyline from the Ellis Island observation deck.</t>
+          <t>Summarized description: I know the real and detailed story of the Statue of Liberty and the Ellis Island immigration process. I have given more than 1,100 tour at this location. I am also a photographer so I can help choosing the best location.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Private tour: Statue of Liberty &amp; Ellis Island</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour with Museum access</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 43656P18</t>
+          <t>PRODUCTCODE: 42097P11</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Explore these New York landmarks on a 3 hour exclusive guided tour. Follow in the footsteps of over 12 million foreigners seeking roads paved with gold in the New World.</t>
+          <t>Summarized description: Guided Tour of Liberty Island and Ellis Island with an expert customize langues-speaking guide. Access to the Pedestal Museum at Liberty Island with Statue of Liberty tickets.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island - Exclusive Guided Tour </t>
+          <t>Title: Statue of Liberty and Ellis Island Tours - NYC</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 324821P66</t>
+          <t>PRODUCTCODE: 73108P1</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Take a ferry cruise to Liberty Island and access the Statue of Liberty.</t>
+          <t>Summarized description: Tour includes the ferry to the Statue of Liberty and entrance inside the pedestal. Ellis Island includes a highlight tour of the Immigration museum. We will make sure no one on the tour is bored!</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Skip-the-Line Statue of Liberty Private Tour with Tickets</t>
+          <t>Title: Fun Statue of Liberty and Ellis Island Tour with Energetic University Students</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13616P19</t>
+          <t>PRODUCTCODE: 336379P2</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
+          <t>Summarized description: We will visit the Statue of Liberty, Ellis Island and Battery Park. We will also visit ground zero and 911 memorial pools. At the conclusion we will go in the ferry back to Battery Park where you will have the incredible NYC Skyline as a back drop.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
+          <t>Title: Statue of Liberty, Ellis Island &amp; 911 Memorial Pools Early morning 5hr Tour</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 70429P1</t>
+          <t>PRODUCTCODE: 15081P329</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history and construction of the Statue of Liberty. Then hop back onto the ferry to experience Ellis Island. Learn about the incredible history of the island and the intense process of immigration to America.</t>
+          <t>Summarized description: Set sail to see Lady Liberty with up close views from the water. Cruise next to Ellis Island, the most famous entry point to the United States. See One World Observatory and the Brooklyn Bridge.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Early Access Statue of Liberty and Ellis Island Guided Tour</t>
+          <t>Title: Statue of Liberty Ellis Island Cruise with One World Trade Ticket</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P180</t>
+          <t>PRODUCTCODE: 107859P737</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description:  Sunset cruise is your new favorite after-work spot for great Music, a bite to eat, good vibes and good times. Enjoy the New York’s skyline panoramas with the Statue of Liberty, Ellis Island, Brooklyn Bridge &amp; more.</t>
+          <t>Summarized description: This experience takes you on a boat trip to liberty and Ellis Island. Includes a visit to liberty island and the Ellis Island national immigration museum. As a profound and moving reflection on the nature of the American ideal...Plus the boat ride!</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty, Ellis Island, and Brooklyn Bridge After Hour Cruise</t>
+          <t>Title: Skip the Line: USA New York Statue of Liberty Ellis Island + City Guide Ticket</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18487,7 +18487,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210206P184</t>
+          <t>PRODUCTCODE: 67185P15</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: The multilingual self-guided tour will allow you to explore both monuments at your own pace. The tour includes a ready-to-go itinerary, GPS navigation and descriptions.</t>
+          <t>Summarized description: Visits to the National Monument of the Statue of Liberty and Ellis Island are a must stop in the Big Apple, especially for those who visit it for the first time in New York City.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Admission Pass in New York</t>
+          <t>Title: Private Tour to the Statue of Liberty and Ellis Island</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P8</t>
+          <t>PRODUCTCODE: 336379P1</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Top 4 attractions good for 7 days. Statue of Liberty, Ellis Island Priority Ferry reserve ticket and 911 Memorial Museum Exclusive Skip the Line Reserve Access. 60 minute sightseeing cruise and a 30 minute orientation tour.</t>
+          <t>Summarized description: Visit to the American Museum of Natural History in New York City. Visit to the Statue of Liberty and Ellis Island. Visit the National Museum of American History in Washington DC.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: TourPass NY: Statue of Liberty, Ellis Island, 911 Memorial Museum, Cruise</t>
+          <t>Title: Statue of Liberty and Ellis Island Guided Tour with local expert</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P18</t>
+          <t>PRODUCTCODE: 70429P4</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Pass right next to the Statue of Liberty and Ellis Island. Enjoy unforgettable photo opportunities as you capture spectacular views of these iconic monuments and the Manhattan skyline.</t>
+          <t>Summarized description: This express tour allows you to see the biggest attractions in NYC in one short trip. A world class guide and professional story teller will take you to the best places in the New York Harbor.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: NYC Statue of Liberty Sightseeing Cruise &amp; Double Decker Tour</t>
+          <t>Title: Statue of Liberty and Ellis Island Express Tour With Expert Guide!</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P193</t>
+          <t>PRODUCTCODE: 241402P3</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description:  Skip the Line: 9/11 Memorial and Museum Ticket and 60-Minute Statue of Liberty Sightseeing Cruise. Tickets valid for any time you choose for the statue of liberty 60 minute cruise. The time chosen is for the 911 Memorial Museum.</t>
+          <t>Summarized description: You're purchasing a Statue of Liberty ticket with INSIDE access to the Pedestal. These tickets normally sell out months in advance. Best of all - your ticket comes with concierge service.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Skip the Line 9/11 Memorial Museum and Statue of Liberty Cruise </t>
+          <t>Title: Statue of Liberty Pedestal Reserve Access Ticket Includes Ellis Island</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 130111P7</t>
+          <t>PRODUCTCODE: 70429P2</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Passengers will be picked up in Queens and on Bowery Street in Manhattan in the morning. Our day concludes with visits to Times Square, Madame Tussauds Wax Museum, Museum of Modern Art, and the USS Intrepid.</t>
+          <t>Summarized description: Learn about the history and construction of the Statue of Liberty. Then hop back onto the ferry to experience Ellis Island. Learn about the incredible history of the island and the intense process of immigration to America.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: New York City Sightseeing Tour (with Statue Liberty Cruise)</t>
+          <t>Title: Statue of Liberty and Ellis Island Private Guided Tour With Expert Guide</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18862,7 +18862,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 364159P1</t>
+          <t>PRODUCTCODE: 74526P26</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: I know the real and detailed story of the Statue of Liberty and the Ellis Island immigration process. I have given more than 1,100 tour at this location. I am also a photographer so I can help choosing the best location.</t>
+          <t>Summarized description: Get up to within 100 feet of the Statue of Liberty and Ellis Island. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour with Museum access</t>
+          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 42097P11</t>
+          <t>PRODUCTCODE: 70429P3</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Guided Tour of Liberty Island and Ellis Island with an expert customize langues-speaking guide. Access to the Pedestal Museum at Liberty Island with Statue of Liberty tickets.</t>
+          <t>Summarized description: Learn about the history and construction of the Statue of Liberty. Then hop back onto the ferry to experience Ellis Island and learn about the incredible history of the island.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tours - NYC</t>
+          <t>Title: Statue of Liberty and Ellis Island Guided Tour Lead By Professional Voice Actor</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19012,7 +19012,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P329</t>
+          <t>PRODUCTCODE: 75760P128</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Set sail to see Lady Liberty with up close views from the water. Cruise next to Ellis Island, the most famous entry point to the United States. See One World Observatory and the Brooklyn Bridge.</t>
+          <t>Summarized description: 30+ New York Sights in one tour! Fun local guide. Visit Ellis Island &amp; The Statue of Liberty after the walking tour. This will give you a good idea of the history, culture &amp; legends of one of the world best-loved cities.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Ellis Island Cruise with One World Trade Ticket</t>
+          <t>Title: See 30 New York Sights (Walking Tour) and Visit Ellis Island &amp; Statue of Liberty</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19087,7 +19087,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66965P2</t>
+          <t>PRODUCTCODE: 90219P189</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Bus and Boat Tour in New York City. 1 hour boat ride pass the Statue of Liberty. 6 hour bus tour with a tour Guide. 24 passengers per bus.</t>
+          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Best New York City Bus Tour and Boat Ride</t>
+          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 12214P5</t>
+          <t>PRODUCTCODE: 336379P9</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: The best way to view the Statue of Liberty is from the water. Get a close-up look of the statue, enjoy panoramic views from our multi-deck vessels. All of the cruises have live tour guide on board, so your tour can be both fun and informative.</t>
+          <t>Summarized description: The Lady Liberty express cruise takes passengers to see the Statue of Liberty. Depart from under the Brooklyn Bridge located in lower manhattan. See the NYC Skyline and continue on your fun day in New York City.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: New York City Statue of Liberty Tickets and Cruises</t>
+          <t xml:space="preserve">Title: Statue of Liberty Express Sightseeing cruise in New York </t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19237,7 +19237,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255280P1</t>
+          <t>PRODUCTCODE: 3763P30</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Majestic Harbor Cruises' 60 minute Statue of Liberty Sightseeing tours November - 2022 sailing scheduled touring dates and times are as follows. Departing from Pier 36, the Majestic Princess travels the East Side of Manhattan before sailing within close proximity to the statue.</t>
+          <t>Summarized description: The Liberty Super Express is a 40-minute round-trip sightseeing cruise from Battery Park to near the Statue of Liberty and back. This tour is narrated by tour guides so travelers enjoy fun, onboard entertainment.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: 60 Minute Statue of Liberty Sightseeing tour-New York Harbor</t>
+          <t>Title: Statue of Liberty Super Express Sightseeing Cruise in NYC</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19312,7 +19312,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P233</t>
+          <t>PRODUCTCODE: 336379P3</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy the new Hunt for Bin Laden exhibit at the 911 Memorial Museum. Make your way to 24 State Street to pick up your Skip the Line: 9/11 Memorial and Museum Ticket and 60-Minute Statue of Liberty Sightseeing Cruise.</t>
+          <t>Summarized description: 60 minute boat cruise of the Statue of Liberty and Ellis Island with a live English speaking tour guide. There is a cash bar on board and food for purchase at the concession stand.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: 9/11 Memorial Museum Entrance &amp; Statue of Liberty Cruise</t>
+          <t xml:space="preserve">Title: Landmark 60-minute NYC Cruise Near the Statue of Liberty </t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19387,7 +19387,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 67185P15</t>
+          <t>PRODUCTCODE: 221092P6</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Visits to the National Monument of the Statue of Liberty and Ellis Island are a must stop in the Big Apple, especially for those who visit it for the first time in New York City.</t>
+          <t>Summarized description: From The Manhattan At Times Square Hotel (790 7th Ave, New York, NY 10019), you will be accompanied by a guide in Spanish who will take you through Midtown Manhattan to Baterry Park in Downtown. The guide will explain each detail and monument to you until its completion.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Private Tour to the Statue of Liberty and Ellis Island</t>
+          <t>Title: Tour to the Statue of Liberty and Ellis Island in Spanish</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19462,7 +19462,7 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P1</t>
+          <t>PRODUCTCODE: 324821P297</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: Visit to the American Museum of Natural History in New York City. Visit to the Statue of Liberty and Ellis Island. Visit the National Museum of American History in Washington DC.</t>
+          <t>Summarized description: This option includes tickets for a round-way ferry cruise and access to the Statue of Liberty Pedestal. This option includes a 1,5-hour transfer time and a guided tour of Liberty Island and Ellis Island.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Guided Tour with local expert</t>
+          <t>Title: Statue of Liberty’s Pedestal &amp; Ellis Island Guided Tour</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19537,7 +19537,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 32772P2</t>
+          <t>PRODUCTCODE: 5372LIBERTYELLIS</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: The Financial District Walking Tour and Boat Tour to the Statue of Liberty are offering more than 23 years of experience. Join us on a tour from the perspective of a Native New Yorker to give you a memorable tour.</t>
+          <t>Summarized description: The Skip the Line: Statue of Liberty and Ellis Island Walking Tour combines two of America’s must-see historical landmarks in one memorable morning of sightseeing. Accompanied by a knowledgeable local guide, you’ll skip the notoriously long lines at the Battery Park ferry terminal.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Financial District Walking Tour and Boat Tour To Statue of Liberty</t>
+          <t>Title: Skip the Line: Statue of Liberty Walking Tour</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19612,7 +19612,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 70429P4</t>
+          <t>PRODUCTCODE: 423559P2</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: This express tour allows you to see the biggest attractions in NYC in one short trip. A world class guide and professional story teller will take you to the best places in the New York Harbor.</t>
+          <t>Summarized description: Liberty Island ferry tour puts you at the center of the experience of this iconic landmark. Your expert guide will share the history, fun facts, and details you would certainly miss if you went on your own.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Express Tour With Expert Guide!</t>
+          <t>Title: The Statue of Liberty Walking Guided Tour</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19687,7 +19687,7 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 241402P3</t>
+          <t>PRODUCTCODE: 151846P184</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: You're purchasing a Statue of Liberty ticket with INSIDE access to the Pedestal. These tickets normally sell out months in advance. Best of all - your ticket comes with concierge service.</t>
+          <t>Summarized description: One World Observatory, Statue of Liberty, 9/11 Memorial Pools, Small Group of 20. Professional tour escort. One World Trade Center.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Pedestal Reserve Access Ticket Includes Ellis Island</t>
+          <t>Title: Complete Lower Manhattan Tour: Statue of Liberty, Ellis Island</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19762,7 +19762,7 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 324821P74</t>
+          <t>PRODUCTCODE: 43581P7</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: Take advantage of comfortable private transfers by car, skip-the-line tickets and the best Local Guide. Experience the best of New York and tick off its most iconic sights.</t>
+          <t>Summarized description: Our tours are fun and engaging, never dull &amp; boring, and have been carefully and thoughtfully designed for the enjoyment of all ages. For a more intimate, private tour feel at a public tour price, tours generally consist of 16 Guests, or less.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Empire State Building 5-hour Tour by Car</t>
+          <t>Title: Statue Of Liberty &amp; Ellis Island Small-Group Tour</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19837,7 +19837,7 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 455890P1</t>
+          <t>PRODUCTCODE: 268756P642</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Tourists can explore iconic landmarks and hidden gems while enjoying amazing views from Midtown to Downtown Manhattan. Our tours are crafted from years of expertise to ensure you don't miss a beat.</t>
+          <t>Summarized description: Walk in the footsteps of millions of immigrants as you step onto Liberty Island. With our exclusive Skip The Line ticket, you won't waste a moment standing in long queues.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: NYC: Sightseeing Day Trip with Statue of Liberty Visit</t>
+          <t>Title: New York Statue of Liberty and Ellis Island: Skip The Line Ticket</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19912,7 +19912,7 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P95</t>
+          <t>PRODUCTCODE: 255071P17</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: All-day tour lets you explore Lady Liberty and Ellis Island on your own. Or upgrade and get a guide for a personalized overview of the island. Enjoy access to the all new Statue of Liberty Museum.</t>
+          <t>Summarized description: Tour the world-class attractions Statue of Liberty, Ellis Island National Immigration Museum, Statue of liberty Museum and Ellis Island. Tour at your own pace with accompanying audio guides with multilingual guides.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Ellis Island Access plus Double-Decker Bus Tour</t>
+          <t>Title: Statue of Liberty and Ellis Island Audio Guide Tour (Priority Access)</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P204</t>
+          <t>PRODUCTCODE: 237089P4</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: Sightseeing Cruise will take you right next to the Statue of Liberty and Ellis Island. The photo opportunities will be unforgettable. This is a 60 Minute Sightseeing Cruise.</t>
+          <t>Summarized description: Explore Liberty Island &amp; Ellis Island independently with the audio guides, available in 9 languages. Join the live guided tour of Battery Park in English for 30 minutes and guaranteed access to the Statue of Liberty Pedestal and Ellis Island.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty and Ellis Island Sightseeing Cruise from Pier 36 </t>
+          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Guided Tour</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20062,7 +20062,7 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P26</t>
+          <t>PRODUCTCODE: 263477P6</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: Get up to within 100 feet of the Statue of Liberty and Ellis Island. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
+          <t>Summarized description: There are 354 steps leading up to the top of the statue. The cost of the trip does not include the cost of getting to and from the island.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island Sightseeing Cruise </t>
+          <t>Title: Boat trip (Ellis Island, Statue of Liberty)</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20137,7 +20137,7 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75760P128</t>
+          <t>PRODUCTCODE: 255730P260</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: 30+ New York Sights in one tour! Fun local guide. Visit Ellis Island &amp; The Statue of Liberty after the walking tour. This will give you a good idea of the history, culture &amp; legends of one of the world best-loved cities.</t>
+          <t>Summarized description: You will learn about the remarkable history of the Statue of Liberty. From here, you will also be able to enjoy a breathtaking view over the Manhattan skylines and harbour. At Ellis Island you will discover the many extraordinary stories of families journeying to New York City.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: See 30 New York Sights (Walking Tour) and Visit Ellis Island &amp; Statue of Liberty</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island: Private Half-Day Guided Tour</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20212,7 +20212,7 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P189</t>
+          <t>PRODUCTCODE: 324821P2</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
+          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Visit New York’s top attraction - the majestic Lady Liberty!</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
+          <t xml:space="preserve">Title: Skip-the-Line Statue of Liberty &amp; Ellis Island Guided Tour </t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20287,7 +20287,7 @@
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P30</t>
+          <t>PRODUCTCODE: 368349P502</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Summarized description: Ride a double-decker hop-on hop-off bus for 1 days, including a Downtown loop. Get an escorted walking tour of the State of Liberty, Ellis Island and ground zero.</t>
+          <t>Summarized description: Book a 1,5-hour round-trip transfer to the Statue of Liberty on Liberty Island and the Immigration Museum on Ellis Island. Get up close and personal with New York City's most iconic symbol.</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Title: NYC Package: Hop-on Hop-off Bus Tour, Statue of Liberty &amp; 911 Memorial Museum</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20362,7 +20362,7 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P9</t>
+          <t>PRODUCTCODE: 34997P6</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Summarized description: The Lady Liberty express cruise takes passengers to see the Statue of Liberty. Depart from under the Brooklyn Bridge located in lower manhattan. See the NYC Skyline and continue on your fun day in New York City.</t>
+          <t>Summarized description: NYC certified expert tour guide to the Statue of Liberty and the Museum. Tour includes Ellis Island, the Museum of Immigration and the Ellis Island Visitors' Center.</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty Express Sightseeing cruise in New York </t>
+          <t>Title: Statue of Liberty and Ellis Island Small-Group Guided Tour</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20437,7 +20437,7 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr"/>
@@ -20452,7 +20452,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3763P30</t>
+          <t>PRODUCTCODE: 90219P120</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Summarized description: The Liberty Super Express is a 40-minute round-trip sightseeing cruise from Battery Park to near the Statue of Liberty and back. This tour is narrated by tour guides so travelers enjoy fun, onboard entertainment.</t>
+          <t>Summarized description: Visit the Statue of Liberty and Ellis Island at your own pace. Get guaranteed access to the pedestal of the statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Super Express Sightseeing Cruise in NYC</t>
+          <t>Title: Best NYC Statue of Liberty Pedestal, Ellis Island and Pre-Ferry Tour</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P3</t>
+          <t>PRODUCTCODE: 15081P221</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Summarized description: 60 minute boat cruise of the Statue of Liberty and Ellis Island with a live English speaking tour guide. There is a cash bar on board and food for purchase at the concession stand.</t>
+          <t>Summarized description: Self-guided audio tour in 9 languages. Fast Track entry to the ferry line and a tour guide to escort you. Statue of Liberty and Ellis Island National Immigration Museum.</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Landmark 60-minute NYC Cruise Near the Statue of Liberty </t>
+          <t>Title: Statue of Liberty and Ellis Island Ferry Ticket with optional Pedestal Upgrade</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P273</t>
+          <t>PRODUCTCODE: 302481P160</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20632,7 +20632,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Summarized description: You will have a 60 minute sightseeing cruise to the Statue of Liberty and Ellis Island. The entrance to St Patricks Cathedral Official Audio Tour operating daily. Plus you will enjoy Skip the line access to the Museum of Modern Art in NYC.</t>
+          <t>Summarized description: The mobile app helps you explore the Statue of Liberty and Ellis Island with a private audio tour (included). You will have a ferry ticket and entrance tickets with a PDF we will send to you. The audio tour has clean navigation, filled with exciting stories from professional guides.</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>Title: Skip-the-line MOMA Museum, Statue of Liberty &amp; St Patrick's Cathedral with Audio</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island Tickets with Self-Guided Audio Tour</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr"/>
@@ -20677,7 +20677,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr"/>
@@ -20692,7 +20692,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2312FREEDOM</t>
+          <t>PRODUCTCODE: 255071P4</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr"/>
@@ -20707,7 +20707,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>Summarized description: Small-group tour (maximum 30 people) includes transportation by climate-controlled shuttle bus, numerous walking tours, two boat cruises and guaranteed tickets to the 9/11 Memorial and Museum.</t>
+          <t>Summarized description: Explore with audio guides or upgrade to include a fully-escorted guided tour of Liberty Island and Ellis Island. Enjoy sought after access to the pedestal of the Statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr"/>
@@ -20722,7 +20722,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>Title: NYC Freedom Tour by Land and Sea including 9/11 Memorial Tickets</t>
+          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr"/>
@@ -20752,7 +20752,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr"/>
@@ -20767,7 +20767,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3763P29</t>
+          <t>PRODUCTCODE: 186143P67</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr"/>
@@ -20782,7 +20782,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Summarized description: The NYC Hop-On Hop-Off Sightseeing Cruise takes you from our Midtown pier, down the Hudson River, to Battery Park. Hop on and off as many times as you like in one day and see all of NYC in one shot.</t>
+          <t>Summarized description: Get guaranteed access to the pedestal of the Statue of Liberty. Upgrade to enjoy the services of a live guide during the pre-ferry tour. See the Immigration Museum on Ellis Island.</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr"/>
@@ -20797,7 +20797,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>Title: NYC Combo Tour: Hop-On Hop-Off Cruise, 9/11 and Intrepid Museums</t>
+          <t>Title: NYC Early Access Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr"/>
@@ -20827,7 +20827,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr"/>
@@ -20842,7 +20842,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 221092P6</t>
+          <t>PRODUCTCODE: 255071P8</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Summarized description: From The Manhattan At Times Square Hotel (790 7th Ave, New York, NY 10019), you will be accompanied by a guide in Spanish who will take you through Midtown Manhattan to Baterry Park in Downtown. The guide will explain each detail and monument to you until its completion.</t>
+          <t>Summarized description: Take a guided tour of the Statue of Liberty and Ellis Island with an expert. You’ll have early reserve line access to the Statue Ferry, and have ample time to explore these 2 important attractions on an express 2-hour or 4-hour tour.</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr"/>
@@ -20872,7 +20872,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>Title: Tour to the Statue of Liberty and Ellis Island in Spanish</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island with Pedestal Access : Exclusive Guided Tour</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr"/>
@@ -20902,7 +20902,7 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr"/>
@@ -20917,7 +20917,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5372LIBERTYELLIS</t>
+          <t>PRODUCTCODE: 13616P20</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr"/>
@@ -20932,7 +20932,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Summarized description: The Skip the Line: Statue of Liberty and Ellis Island Walking Tour combines two of America’s must-see historical landmarks in one memorable morning of sightseeing. Accompanied by a knowledgeable local guide, you’ll skip the notoriously long lines at the Battery Park ferry terminal.</t>
+          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Statue of Liberty Walking Tour</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 423559P2</t>
+          <t>PRODUCTCODE: 106680P1</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Summarized description: Liberty Island ferry tour puts you at the center of the experience of this iconic landmark. Your expert guide will share the history, fun facts, and details you would certainly miss if you went on your own.</t>
+          <t>Summarized description:  YES Tours NYC offers tours of the Statue of Liberty and Ellis Island. All guides have family that came through Ellis Island, and offer expert stories, memories and narration. Ferry tickets are an additional $18.50 per person.</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr"/>
@@ -21022,7 +21022,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>Title: The Statue of Liberty Walking Guided Tour</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr"/>
@@ -21052,7 +21052,7 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr"/>
@@ -21067,7 +21067,7 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 43581P7</t>
+          <t>PRODUCTCODE: 237089P11</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr"/>
@@ -21082,7 +21082,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>Summarized description: Our tours are fun and engaging, never dull &amp; boring, and have been carefully and thoughtfully designed for the enjoyment of all ages. For a more intimate, private tour feel at a public tour price, tours generally consist of 16 Guests, or less.</t>
+          <t>Summarized description: Ellis Island is home to America’s Immigration Museum and was the spot where tens of millions of immigrants took their first steps towards becoming Americans. Enjoy a small party, live guide, and Ellis Island personal headset radio.</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr"/>
@@ -21097,7 +21097,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>Title: Statue Of Liberty &amp; Ellis Island Small-Group Tour</t>
+          <t>Title: NYC : Exclusive Statue of Liberty Pedestal Express &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr"/>
@@ -21127,7 +21127,7 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268756P642</t>
+          <t>PRODUCTCODE: 378258P1</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr"/>
@@ -21157,7 +21157,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>Summarized description: Walk in the footsteps of millions of immigrants as you step onto Liberty Island. With our exclusive Skip The Line ticket, you won't waste a moment standing in long queues.</t>
+          <t>Summarized description: Get up close and personal with New York City's most iconic symbol, the majestic Statue of Liberty. Take a ferry cruise to Liberty Island with a Private Guide. Extended options: private transfers and Ellis Island tour.</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr"/>
@@ -21172,7 +21172,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>Title: New York Statue of Liberty and Ellis Island: Skip The Line Ticket</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr"/>
@@ -21202,7 +21202,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr"/>
@@ -21217,7 +21217,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255071P17</t>
+          <t>PRODUCTCODE: 195909P8</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr"/>
@@ -21232,7 +21232,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>Summarized description: Tour the world-class attractions Statue of Liberty, Ellis Island National Immigration Museum, Statue of liberty Museum and Ellis Island. Tour at your own pace with accompanying audio guides with multilingual guides.</t>
+          <t>Summarized description: Explore with audio guides in 9 languages or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island in English. Take a 30 minute orientation tour in English of the Statue of Liberty and Ellis Island with a live English speaking tour guide.</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr"/>
@@ -21247,7 +21247,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Audio Guide Tour (Priority Access)</t>
+          <t>Title: Skip the Line Statue of Liberty Pedestal, Ellis Island &amp; Orientation Tour- Group</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr"/>
@@ -21292,7 +21292,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 237089P4</t>
+          <t>PRODUCTCODE: 368349P494</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Liberty Island &amp; Ellis Island independently with the audio guides, available in 9 languages. Join the live guided tour of Battery Park in English for 30 minutes and guaranteed access to the Statue of Liberty Pedestal and Ellis Island.</t>
+          <t>Summarized description: Discover the history and symbolism of the Statue of Liberty with a 5-Star Expert Guide. Take a scenic ferry ride from Downtown New York to Liberty Island. See Lady Liberty up close and snap your souvenir photo. Listen to fun and engaging live commentary in 1 language of your choice.</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr"/>
@@ -21322,7 +21322,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Guided Tour</t>
+          <t>Title: NYC to The Statue of Liberty Guided Tour by Ferry Cruise</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr"/>
@@ -21352,7 +21352,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr"/>
@@ -21367,7 +21367,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 263477P6</t>
+          <t>PRODUCTCODE: 42097P15</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr"/>
@@ -21382,7 +21382,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>Summarized description: There are 354 steps leading up to the top of the statue. The cost of the trip does not include the cost of getting to and from the island.</t>
+          <t>Summarized description: Save time in the Ferry Line with Priority "Reserve Line" Ferry Tickets to the Statue of Liberty &amp; Ellis Island. Enjoy personalized service as our onsite Guest Relations Team helps you with a hassle-free check-in experience.</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>Title: Boat trip (Ellis Island, Statue of Liberty)</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr"/>
@@ -21427,7 +21427,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr"/>
@@ -21442,7 +21442,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255730P260</t>
+          <t>PRODUCTCODE: 241402P4</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr"/>
@@ -21457,7 +21457,7 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>Summarized description: You will learn about the remarkable history of the Statue of Liberty. From here, you will also be able to enjoy a breathtaking view over the Manhattan skylines and harbour. At Ellis Island you will discover the many extraordinary stories of families journeying to New York City.</t>
+          <t>Summarized description: You're purchasing a Statue of Liberty ticket with INSIDE access to the Pedestal. These tickets normally sell out months in advance. Best of all - your ticket comes with concierge service.</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island: Private Half-Day Guided Tour</t>
+          <t>Title: Skip the Line: Statue of Liberty with Pedestal Access and Ellis Island Ticket</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr"/>
@@ -21502,7 +21502,7 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr"/>
@@ -21517,7 +21517,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 324821P2</t>
+          <t>PRODUCTCODE: 31003P36</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr"/>
@@ -21532,7 +21532,7 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Visit New York’s top attraction - the majestic Lady Liberty!</t>
+          <t>Summarized description: Explore the Statue of Liberty Museum and Ellis Island. Tour the Lower East Side, the ultimate immigrant neighborhood. Tour includes samples from The Pickle Guys, Kossar’s and Yonah Schimmel Knish.</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr"/>
@@ -21547,7 +21547,7 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Skip-the-Line Statue of Liberty &amp; Ellis Island Guided Tour </t>
+          <t>Title: Statue of Liberty Ellis Island and Tastes of the Lower East Side Combo Tour</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr"/>
@@ -21577,7 +21577,7 @@
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr"/>
@@ -21592,7 +21592,7 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P71</t>
+          <t>PRODUCTCODE: 90219P278</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr"/>
@@ -21607,7 +21607,7 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>Summarized description: Tour at your own pace with multilingual audio guides at both Liberty Island and Ellis Island. Enjoy personalised service as your onsite GetYourGuide Guest Relations Team help you with a hassle-free check-in.</t>
+          <t>Summarized description: Climb to the pedestal of the Statue of Liberty for impressive views of Manhattan. Walk the Stairs of Separation at Ellis Island Immigration Museum.</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr"/>
@@ -21622,7 +21622,7 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>Title: Best NYC Tour: Priority or Flexible Statue of Liberty Ticket</t>
+          <t>Title: New York City Greatest Statue of Liberty &amp; Ellis Island Early Access Tour</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr"/>
@@ -21652,7 +21652,7 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr"/>
@@ -21667,7 +21667,7 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368349P502</t>
+          <t>PRODUCTCODE: 175348P13</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr"/>
@@ -21682,7 +21682,7 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>Summarized description: Book a 1,5-hour round-trip transfer to the Statue of Liberty on Liberty Island and the Immigration Museum on Ellis Island. Get up close and personal with New York City's most iconic symbol.</t>
+          <t>Summarized description: 30+ New York Sights in one tour! Fun local guide will guide you on an exploration of New York’s major landmarks. After the walking tour you will visit New York's famous Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1413" t="inlineStr"/>
@@ -21697,7 +21697,7 @@
     <row r="1414">
       <c r="A1414" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
+          <t>Title: Visit Ellis Island &amp; Statue of Liberty &amp; See 30 New York Sights (Walking Tour)</t>
         </is>
       </c>
       <c r="B1414" t="inlineStr"/>
@@ -21727,7 +21727,7 @@
     <row r="1416">
       <c r="A1416" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1416" t="inlineStr"/>
@@ -21742,7 +21742,7 @@
     <row r="1417">
       <c r="A1417" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 34997P6</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1417" t="inlineStr"/>
@@ -21754,1431 +21754,6 @@
       <c r="H1417" t="inlineStr"/>
       <c r="I1417" t="inlineStr"/>
     </row>
-    <row r="1418">
-      <c r="A1418" t="inlineStr">
-        <is>
-          <t>Summarized description: NYC certified expert tour guide to the Statue of Liberty and the Museum. Tour includes Ellis Island, the Museum of Immigration and the Ellis Island Visitors' Center.</t>
-        </is>
-      </c>
-      <c r="B1418" t="inlineStr"/>
-      <c r="C1418" t="inlineStr"/>
-      <c r="D1418" t="inlineStr"/>
-      <c r="E1418" t="inlineStr"/>
-      <c r="F1418" t="inlineStr"/>
-      <c r="G1418" t="inlineStr"/>
-      <c r="H1418" t="inlineStr"/>
-      <c r="I1418" t="inlineStr"/>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty and Ellis Island Small-Group Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1419" t="inlineStr"/>
-      <c r="C1419" t="inlineStr"/>
-      <c r="D1419" t="inlineStr"/>
-      <c r="E1419" t="inlineStr"/>
-      <c r="F1419" t="inlineStr"/>
-      <c r="G1419" t="inlineStr"/>
-      <c r="H1419" t="inlineStr"/>
-      <c r="I1419" t="inlineStr"/>
-    </row>
-    <row r="1420">
-      <c r="A1420" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1420" t="inlineStr"/>
-      <c r="C1420" t="inlineStr"/>
-      <c r="D1420" t="inlineStr"/>
-      <c r="E1420" t="inlineStr"/>
-      <c r="F1420" t="inlineStr"/>
-      <c r="G1420" t="inlineStr"/>
-      <c r="H1420" t="inlineStr"/>
-      <c r="I1420" t="inlineStr"/>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1421" t="inlineStr"/>
-      <c r="C1421" t="inlineStr"/>
-      <c r="D1421" t="inlineStr"/>
-      <c r="E1421" t="inlineStr"/>
-      <c r="F1421" t="inlineStr"/>
-      <c r="G1421" t="inlineStr"/>
-      <c r="H1421" t="inlineStr"/>
-      <c r="I1421" t="inlineStr"/>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90219P120</t>
-        </is>
-      </c>
-      <c r="B1422" t="inlineStr"/>
-      <c r="C1422" t="inlineStr"/>
-      <c r="D1422" t="inlineStr"/>
-      <c r="E1422" t="inlineStr"/>
-      <c r="F1422" t="inlineStr"/>
-      <c r="G1422" t="inlineStr"/>
-      <c r="H1422" t="inlineStr"/>
-      <c r="I1422" t="inlineStr"/>
-    </row>
-    <row r="1423">
-      <c r="A1423" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit the Statue of Liberty and Ellis Island at your own pace. Get guaranteed access to the pedestal of the statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
-        </is>
-      </c>
-      <c r="B1423" t="inlineStr"/>
-      <c r="C1423" t="inlineStr"/>
-      <c r="D1423" t="inlineStr"/>
-      <c r="E1423" t="inlineStr"/>
-      <c r="F1423" t="inlineStr"/>
-      <c r="G1423" t="inlineStr"/>
-      <c r="H1423" t="inlineStr"/>
-      <c r="I1423" t="inlineStr"/>
-    </row>
-    <row r="1424">
-      <c r="A1424" t="inlineStr">
-        <is>
-          <t>Title: Best NYC Statue of Liberty Pedestal, Ellis Island and Pre-Ferry Tour</t>
-        </is>
-      </c>
-      <c r="B1424" t="inlineStr"/>
-      <c r="C1424" t="inlineStr"/>
-      <c r="D1424" t="inlineStr"/>
-      <c r="E1424" t="inlineStr"/>
-      <c r="F1424" t="inlineStr"/>
-      <c r="G1424" t="inlineStr"/>
-      <c r="H1424" t="inlineStr"/>
-      <c r="I1424" t="inlineStr"/>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1425" t="inlineStr"/>
-      <c r="C1425" t="inlineStr"/>
-      <c r="D1425" t="inlineStr"/>
-      <c r="E1425" t="inlineStr"/>
-      <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr"/>
-      <c r="I1425" t="inlineStr"/>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1426" t="inlineStr"/>
-      <c r="C1426" t="inlineStr"/>
-      <c r="D1426" t="inlineStr"/>
-      <c r="E1426" t="inlineStr"/>
-      <c r="F1426" t="inlineStr"/>
-      <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr"/>
-      <c r="I1426" t="inlineStr"/>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 15081P221</t>
-        </is>
-      </c>
-      <c r="B1427" t="inlineStr"/>
-      <c r="C1427" t="inlineStr"/>
-      <c r="D1427" t="inlineStr"/>
-      <c r="E1427" t="inlineStr"/>
-      <c r="F1427" t="inlineStr"/>
-      <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr"/>
-      <c r="I1427" t="inlineStr"/>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="inlineStr">
-        <is>
-          <t>Summarized description: Self-guided audio tour in 9 languages. Fast Track entry to the ferry line and a tour guide to escort you. Statue of Liberty and Ellis Island National Immigration Museum.</t>
-        </is>
-      </c>
-      <c r="B1428" t="inlineStr"/>
-      <c r="C1428" t="inlineStr"/>
-      <c r="D1428" t="inlineStr"/>
-      <c r="E1428" t="inlineStr"/>
-      <c r="F1428" t="inlineStr"/>
-      <c r="G1428" t="inlineStr"/>
-      <c r="H1428" t="inlineStr"/>
-      <c r="I1428" t="inlineStr"/>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty and Ellis Island Ferry Ticket with optional Pedestal Upgrade</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr"/>
-      <c r="C1429" t="inlineStr"/>
-      <c r="D1429" t="inlineStr"/>
-      <c r="E1429" t="inlineStr"/>
-      <c r="F1429" t="inlineStr"/>
-      <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr"/>
-      <c r="I1429" t="inlineStr"/>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr"/>
-      <c r="C1430" t="inlineStr"/>
-      <c r="D1430" t="inlineStr"/>
-      <c r="E1430" t="inlineStr"/>
-      <c r="F1430" t="inlineStr"/>
-      <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr"/>
-      <c r="I1430" t="inlineStr"/>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1431" t="inlineStr"/>
-      <c r="C1431" t="inlineStr"/>
-      <c r="D1431" t="inlineStr"/>
-      <c r="E1431" t="inlineStr"/>
-      <c r="F1431" t="inlineStr"/>
-      <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr"/>
-      <c r="I1431" t="inlineStr"/>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 255071P4</t>
-        </is>
-      </c>
-      <c r="B1432" t="inlineStr"/>
-      <c r="C1432" t="inlineStr"/>
-      <c r="D1432" t="inlineStr"/>
-      <c r="E1432" t="inlineStr"/>
-      <c r="F1432" t="inlineStr"/>
-      <c r="G1432" t="inlineStr"/>
-      <c r="H1432" t="inlineStr"/>
-      <c r="I1432" t="inlineStr"/>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore with audio guides or upgrade to include a fully-escorted guided tour of Liberty Island and Ellis Island. Enjoy sought after access to the pedestal of the Statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
-      <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
-      <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
-      <c r="I1433" t="inlineStr"/>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="inlineStr">
-        <is>
-          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
-        </is>
-      </c>
-      <c r="B1434" t="inlineStr"/>
-      <c r="C1434" t="inlineStr"/>
-      <c r="D1434" t="inlineStr"/>
-      <c r="E1434" t="inlineStr"/>
-      <c r="F1434" t="inlineStr"/>
-      <c r="G1434" t="inlineStr"/>
-      <c r="H1434" t="inlineStr"/>
-      <c r="I1434" t="inlineStr"/>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr"/>
-      <c r="C1435" t="inlineStr"/>
-      <c r="D1435" t="inlineStr"/>
-      <c r="E1435" t="inlineStr"/>
-      <c r="F1435" t="inlineStr"/>
-      <c r="G1435" t="inlineStr"/>
-      <c r="H1435" t="inlineStr"/>
-      <c r="I1435" t="inlineStr"/>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1436" t="inlineStr"/>
-      <c r="C1436" t="inlineStr"/>
-      <c r="D1436" t="inlineStr"/>
-      <c r="E1436" t="inlineStr"/>
-      <c r="F1436" t="inlineStr"/>
-      <c r="G1436" t="inlineStr"/>
-      <c r="H1436" t="inlineStr"/>
-      <c r="I1436" t="inlineStr"/>
-    </row>
-    <row r="1437">
-      <c r="A1437" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 186143P67</t>
-        </is>
-      </c>
-      <c r="B1437" t="inlineStr"/>
-      <c r="C1437" t="inlineStr"/>
-      <c r="D1437" t="inlineStr"/>
-      <c r="E1437" t="inlineStr"/>
-      <c r="F1437" t="inlineStr"/>
-      <c r="G1437" t="inlineStr"/>
-      <c r="H1437" t="inlineStr"/>
-      <c r="I1437" t="inlineStr"/>
-    </row>
-    <row r="1438">
-      <c r="A1438" t="inlineStr">
-        <is>
-          <t>Summarized description: Get guaranteed access to the pedestal of the Statue of Liberty. Upgrade to enjoy the services of a live guide during the pre-ferry tour. See the Immigration Museum on Ellis Island.</t>
-        </is>
-      </c>
-      <c r="B1438" t="inlineStr"/>
-      <c r="C1438" t="inlineStr"/>
-      <c r="D1438" t="inlineStr"/>
-      <c r="E1438" t="inlineStr"/>
-      <c r="F1438" t="inlineStr"/>
-      <c r="G1438" t="inlineStr"/>
-      <c r="H1438" t="inlineStr"/>
-      <c r="I1438" t="inlineStr"/>
-    </row>
-    <row r="1439">
-      <c r="A1439" t="inlineStr">
-        <is>
-          <t>Title: NYC Early Access Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
-        </is>
-      </c>
-      <c r="B1439" t="inlineStr"/>
-      <c r="C1439" t="inlineStr"/>
-      <c r="D1439" t="inlineStr"/>
-      <c r="E1439" t="inlineStr"/>
-      <c r="F1439" t="inlineStr"/>
-      <c r="G1439" t="inlineStr"/>
-      <c r="H1439" t="inlineStr"/>
-      <c r="I1439" t="inlineStr"/>
-    </row>
-    <row r="1440">
-      <c r="A1440" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1440" t="inlineStr"/>
-      <c r="C1440" t="inlineStr"/>
-      <c r="D1440" t="inlineStr"/>
-      <c r="E1440" t="inlineStr"/>
-      <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr"/>
-      <c r="H1440" t="inlineStr"/>
-      <c r="I1440" t="inlineStr"/>
-    </row>
-    <row r="1441">
-      <c r="A1441" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1441" t="inlineStr"/>
-      <c r="C1441" t="inlineStr"/>
-      <c r="D1441" t="inlineStr"/>
-      <c r="E1441" t="inlineStr"/>
-      <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr"/>
-      <c r="H1441" t="inlineStr"/>
-      <c r="I1441" t="inlineStr"/>
-    </row>
-    <row r="1442">
-      <c r="A1442" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 255071P8</t>
-        </is>
-      </c>
-      <c r="B1442" t="inlineStr"/>
-      <c r="C1442" t="inlineStr"/>
-      <c r="D1442" t="inlineStr"/>
-      <c r="E1442" t="inlineStr"/>
-      <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr"/>
-      <c r="H1442" t="inlineStr"/>
-      <c r="I1442" t="inlineStr"/>
-    </row>
-    <row r="1443">
-      <c r="A1443" t="inlineStr">
-        <is>
-          <t>Summarized description: Take a guided tour of the Statue of Liberty and Ellis Island with an expert. You’ll have early reserve line access to the Statue Ferry, and have ample time to explore these 2 important attractions on an express 2-hour or 4-hour tour.</t>
-        </is>
-      </c>
-      <c r="B1443" t="inlineStr"/>
-      <c r="C1443" t="inlineStr"/>
-      <c r="D1443" t="inlineStr"/>
-      <c r="E1443" t="inlineStr"/>
-      <c r="F1443" t="inlineStr"/>
-      <c r="G1443" t="inlineStr"/>
-      <c r="H1443" t="inlineStr"/>
-      <c r="I1443" t="inlineStr"/>
-    </row>
-    <row r="1444">
-      <c r="A1444" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island with Pedestal Access : Exclusive Guided Tour</t>
-        </is>
-      </c>
-      <c r="B1444" t="inlineStr"/>
-      <c r="C1444" t="inlineStr"/>
-      <c r="D1444" t="inlineStr"/>
-      <c r="E1444" t="inlineStr"/>
-      <c r="F1444" t="inlineStr"/>
-      <c r="G1444" t="inlineStr"/>
-      <c r="H1444" t="inlineStr"/>
-      <c r="I1444" t="inlineStr"/>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1445" t="inlineStr"/>
-      <c r="C1445" t="inlineStr"/>
-      <c r="D1445" t="inlineStr"/>
-      <c r="E1445" t="inlineStr"/>
-      <c r="F1445" t="inlineStr"/>
-      <c r="G1445" t="inlineStr"/>
-      <c r="H1445" t="inlineStr"/>
-      <c r="I1445" t="inlineStr"/>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1446" t="inlineStr"/>
-      <c r="C1446" t="inlineStr"/>
-      <c r="D1446" t="inlineStr"/>
-      <c r="E1446" t="inlineStr"/>
-      <c r="F1446" t="inlineStr"/>
-      <c r="G1446" t="inlineStr"/>
-      <c r="H1446" t="inlineStr"/>
-      <c r="I1446" t="inlineStr"/>
-    </row>
-    <row r="1447">
-      <c r="A1447" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 237089P11</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr"/>
-      <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr"/>
-      <c r="E1447" t="inlineStr"/>
-      <c r="F1447" t="inlineStr"/>
-      <c r="G1447" t="inlineStr"/>
-      <c r="H1447" t="inlineStr"/>
-      <c r="I1447" t="inlineStr"/>
-    </row>
-    <row r="1448">
-      <c r="A1448" t="inlineStr">
-        <is>
-          <t>Summarized description: Ellis Island is home to America’s Immigration Museum and was the spot where tens of millions of immigrants took their first steps towards becoming Americans. Enjoy a small party, live guide, and Ellis Island personal headset radio.</t>
-        </is>
-      </c>
-      <c r="B1448" t="inlineStr"/>
-      <c r="C1448" t="inlineStr"/>
-      <c r="D1448" t="inlineStr"/>
-      <c r="E1448" t="inlineStr"/>
-      <c r="F1448" t="inlineStr"/>
-      <c r="G1448" t="inlineStr"/>
-      <c r="H1448" t="inlineStr"/>
-      <c r="I1448" t="inlineStr"/>
-    </row>
-    <row r="1449">
-      <c r="A1449" t="inlineStr">
-        <is>
-          <t>Title: NYC : Exclusive Statue of Liberty Pedestal Express &amp; Ellis Island</t>
-        </is>
-      </c>
-      <c r="B1449" t="inlineStr"/>
-      <c r="C1449" t="inlineStr"/>
-      <c r="D1449" t="inlineStr"/>
-      <c r="E1449" t="inlineStr"/>
-      <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr"/>
-      <c r="I1449" t="inlineStr"/>
-    </row>
-    <row r="1450">
-      <c r="A1450" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr"/>
-      <c r="C1450" t="inlineStr"/>
-      <c r="D1450" t="inlineStr"/>
-      <c r="E1450" t="inlineStr"/>
-      <c r="F1450" t="inlineStr"/>
-      <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr"/>
-      <c r="I1450" t="inlineStr"/>
-    </row>
-    <row r="1451">
-      <c r="A1451" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1451" t="inlineStr"/>
-      <c r="C1451" t="inlineStr"/>
-      <c r="D1451" t="inlineStr"/>
-      <c r="E1451" t="inlineStr"/>
-      <c r="F1451" t="inlineStr"/>
-      <c r="G1451" t="inlineStr"/>
-      <c r="H1451" t="inlineStr"/>
-      <c r="I1451" t="inlineStr"/>
-    </row>
-    <row r="1452">
-      <c r="A1452" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 378258P1</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr"/>
-      <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
-      <c r="F1452" t="inlineStr"/>
-      <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr"/>
-      <c r="I1452" t="inlineStr"/>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>Summarized description: Get up close and personal with New York City's most iconic symbol, the majestic Statue of Liberty. Take a ferry cruise to Liberty Island with a Private Guide. Extended options: private transfers and Ellis Island tour.</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr"/>
-      <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr"/>
-      <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr"/>
-      <c r="H1453" t="inlineStr"/>
-      <c r="I1453" t="inlineStr"/>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr"/>
-      <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr"/>
-      <c r="I1454" t="inlineStr"/>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1455" t="inlineStr"/>
-      <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr"/>
-      <c r="E1455" t="inlineStr"/>
-      <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr"/>
-      <c r="H1455" t="inlineStr"/>
-      <c r="I1455" t="inlineStr"/>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr"/>
-      <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr"/>
-      <c r="I1456" t="inlineStr"/>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 75303P7</t>
-        </is>
-      </c>
-      <c r="B1457" t="inlineStr"/>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr"/>
-      <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr"/>
-      <c r="H1457" t="inlineStr"/>
-      <c r="I1457" t="inlineStr"/>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>Summarized description: Take a free ferry to see the statue from the boat. Do not miss the highest viewpoint in the cityas a plus. The best is the highest observation deck in new york and the twin towers.</t>
-        </is>
-      </c>
-      <c r="B1458" t="inlineStr"/>
-      <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr"/>
-      <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr"/>
-      <c r="H1458" t="inlineStr"/>
-      <c r="I1458" t="inlineStr"/>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty Tour + One World Observatory</t>
-        </is>
-      </c>
-      <c r="B1459" t="inlineStr"/>
-      <c r="C1459" t="inlineStr"/>
-      <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr"/>
-      <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr"/>
-      <c r="H1459" t="inlineStr"/>
-      <c r="I1459" t="inlineStr"/>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1460" t="inlineStr"/>
-      <c r="C1460" t="inlineStr"/>
-      <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr"/>
-      <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr"/>
-      <c r="H1460" t="inlineStr"/>
-      <c r="I1460" t="inlineStr"/>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1461" t="inlineStr"/>
-      <c r="C1461" t="inlineStr"/>
-      <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr"/>
-      <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
-      <c r="H1461" t="inlineStr"/>
-      <c r="I1461" t="inlineStr"/>
-    </row>
-    <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 195909P8</t>
-        </is>
-      </c>
-      <c r="B1462" t="inlineStr"/>
-      <c r="C1462" t="inlineStr"/>
-      <c r="D1462" t="inlineStr"/>
-      <c r="E1462" t="inlineStr"/>
-      <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
-      <c r="H1462" t="inlineStr"/>
-      <c r="I1462" t="inlineStr"/>
-    </row>
-    <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore with audio guides in 9 languages or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island in English. Take a 30 minute orientation tour in English of the Statue of Liberty and Ellis Island with a live English speaking tour guide.</t>
-        </is>
-      </c>
-      <c r="B1463" t="inlineStr"/>
-      <c r="C1463" t="inlineStr"/>
-      <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
-      <c r="H1463" t="inlineStr"/>
-      <c r="I1463" t="inlineStr"/>
-    </row>
-    <row r="1464">
-      <c r="A1464" t="inlineStr">
-        <is>
-          <t>Title: Skip the Line Statue of Liberty Pedestal, Ellis Island &amp; Orientation Tour- Group</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr"/>
-      <c r="C1464" t="inlineStr"/>
-      <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr"/>
-      <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr"/>
-      <c r="H1464" t="inlineStr"/>
-      <c r="I1464" t="inlineStr"/>
-    </row>
-    <row r="1465">
-      <c r="A1465" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1465" t="inlineStr"/>
-      <c r="C1465" t="inlineStr"/>
-      <c r="D1465" t="inlineStr"/>
-      <c r="E1465" t="inlineStr"/>
-      <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr"/>
-      <c r="H1465" t="inlineStr"/>
-      <c r="I1465" t="inlineStr"/>
-    </row>
-    <row r="1466">
-      <c r="A1466" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1466" t="inlineStr"/>
-      <c r="C1466" t="inlineStr"/>
-      <c r="D1466" t="inlineStr"/>
-      <c r="E1466" t="inlineStr"/>
-      <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr"/>
-      <c r="H1466" t="inlineStr"/>
-      <c r="I1466" t="inlineStr"/>
-    </row>
-    <row r="1467">
-      <c r="A1467" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 15081P202</t>
-        </is>
-      </c>
-      <c r="B1467" t="inlineStr"/>
-      <c r="C1467" t="inlineStr"/>
-      <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr"/>
-      <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr"/>
-      <c r="H1467" t="inlineStr"/>
-      <c r="I1467" t="inlineStr"/>
-    </row>
-    <row r="1468">
-      <c r="A1468" t="inlineStr">
-        <is>
-          <t>Summarized description: The spirit of Stonewall lives on as we commemorate and celebrate historical moments and the gamechangers of tomorrow. Visit Ellis Island and Lady liberty with a fully escorted walking tour. When you have returned to Battery Park by ferry, you’ll visit the 9/11 Memorial.</t>
-        </is>
-      </c>
-      <c r="B1468" t="inlineStr"/>
-      <c r="C1468" t="inlineStr"/>
-      <c r="D1468" t="inlineStr"/>
-      <c r="E1468" t="inlineStr"/>
-      <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr"/>
-      <c r="H1468" t="inlineStr"/>
-      <c r="I1468" t="inlineStr"/>
-    </row>
-    <row r="1469">
-      <c r="A1469" t="inlineStr">
-        <is>
-          <t>Title: World Pride Exclusive: Ellis Island Statue of Liberty &amp; 911 Memorial Pools Tour</t>
-        </is>
-      </c>
-      <c r="B1469" t="inlineStr"/>
-      <c r="C1469" t="inlineStr"/>
-      <c r="D1469" t="inlineStr"/>
-      <c r="E1469" t="inlineStr"/>
-      <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr"/>
-      <c r="H1469" t="inlineStr"/>
-      <c r="I1469" t="inlineStr"/>
-    </row>
-    <row r="1470">
-      <c r="A1470" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1470" t="inlineStr"/>
-      <c r="C1470" t="inlineStr"/>
-      <c r="D1470" t="inlineStr"/>
-      <c r="E1470" t="inlineStr"/>
-      <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr"/>
-      <c r="H1470" t="inlineStr"/>
-      <c r="I1470" t="inlineStr"/>
-    </row>
-    <row r="1471">
-      <c r="A1471" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1471" t="inlineStr"/>
-      <c r="C1471" t="inlineStr"/>
-      <c r="D1471" t="inlineStr"/>
-      <c r="E1471" t="inlineStr"/>
-      <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
-      <c r="H1471" t="inlineStr"/>
-      <c r="I1471" t="inlineStr"/>
-    </row>
-    <row r="1472">
-      <c r="A1472" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 368349P494</t>
-        </is>
-      </c>
-      <c r="B1472" t="inlineStr"/>
-      <c r="C1472" t="inlineStr"/>
-      <c r="D1472" t="inlineStr"/>
-      <c r="E1472" t="inlineStr"/>
-      <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr"/>
-      <c r="H1472" t="inlineStr"/>
-      <c r="I1472" t="inlineStr"/>
-    </row>
-    <row r="1473">
-      <c r="A1473" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover the history and symbolism of the Statue of Liberty with a 5-Star Expert Guide. Take a scenic ferry ride from Downtown New York to Liberty Island. See Lady Liberty up close and snap your souvenir photo. Listen to fun and engaging live commentary in 1 language of your choice.</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr"/>
-      <c r="C1473" t="inlineStr"/>
-      <c r="D1473" t="inlineStr"/>
-      <c r="E1473" t="inlineStr"/>
-      <c r="F1473" t="inlineStr"/>
-      <c r="G1473" t="inlineStr"/>
-      <c r="H1473" t="inlineStr"/>
-      <c r="I1473" t="inlineStr"/>
-    </row>
-    <row r="1474">
-      <c r="A1474" t="inlineStr">
-        <is>
-          <t>Title: NYC to The Statue of Liberty Guided Tour by Ferry Cruise</t>
-        </is>
-      </c>
-      <c r="B1474" t="inlineStr"/>
-      <c r="C1474" t="inlineStr"/>
-      <c r="D1474" t="inlineStr"/>
-      <c r="E1474" t="inlineStr"/>
-      <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr"/>
-      <c r="H1474" t="inlineStr"/>
-      <c r="I1474" t="inlineStr"/>
-    </row>
-    <row r="1475">
-      <c r="A1475" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr"/>
-      <c r="C1475" t="inlineStr"/>
-      <c r="D1475" t="inlineStr"/>
-      <c r="E1475" t="inlineStr"/>
-      <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
-      <c r="H1475" t="inlineStr"/>
-      <c r="I1475" t="inlineStr"/>
-    </row>
-    <row r="1476">
-      <c r="A1476" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1476" t="inlineStr"/>
-      <c r="C1476" t="inlineStr"/>
-      <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
-      <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr"/>
-      <c r="I1476" t="inlineStr"/>
-    </row>
-    <row r="1477">
-      <c r="A1477" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 42097P15</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr"/>
-      <c r="C1477" t="inlineStr"/>
-      <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr"/>
-      <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr"/>
-      <c r="I1477" t="inlineStr"/>
-    </row>
-    <row r="1478">
-      <c r="A1478" t="inlineStr">
-        <is>
-          <t>Summarized description: Save time in the Ferry Line with Priority "Reserve Line" Ferry Tickets to the Statue of Liberty &amp; Ellis Island. Enjoy personalized service as our onsite Guest Relations Team helps you with a hassle-free check-in experience.</t>
-        </is>
-      </c>
-      <c r="B1478" t="inlineStr"/>
-      <c r="C1478" t="inlineStr"/>
-      <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr"/>
-      <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr"/>
-      <c r="H1478" t="inlineStr"/>
-      <c r="I1478" t="inlineStr"/>
-    </row>
-    <row r="1479">
-      <c r="A1479" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr"/>
-      <c r="C1479" t="inlineStr"/>
-      <c r="D1479" t="inlineStr"/>
-      <c r="E1479" t="inlineStr"/>
-      <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr"/>
-      <c r="I1479" t="inlineStr"/>
-    </row>
-    <row r="1480">
-      <c r="A1480" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1480" t="inlineStr"/>
-      <c r="C1480" t="inlineStr"/>
-      <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr"/>
-      <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr"/>
-      <c r="H1480" t="inlineStr"/>
-      <c r="I1480" t="inlineStr"/>
-    </row>
-    <row r="1481">
-      <c r="A1481" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1481" t="inlineStr"/>
-      <c r="C1481" t="inlineStr"/>
-      <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr"/>
-      <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr"/>
-      <c r="I1481" t="inlineStr"/>
-    </row>
-    <row r="1482">
-      <c r="A1482" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 241402P4</t>
-        </is>
-      </c>
-      <c r="B1482" t="inlineStr"/>
-      <c r="C1482" t="inlineStr"/>
-      <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr"/>
-      <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr"/>
-      <c r="I1482" t="inlineStr"/>
-    </row>
-    <row r="1483">
-      <c r="A1483" t="inlineStr">
-        <is>
-          <t>Summarized description: You're purchasing a Statue of Liberty ticket with INSIDE access to the Pedestal. These tickets normally sell out months in advance. Best of all - your ticket comes with concierge service.</t>
-        </is>
-      </c>
-      <c r="B1483" t="inlineStr"/>
-      <c r="C1483" t="inlineStr"/>
-      <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr"/>
-      <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
-      <c r="H1483" t="inlineStr"/>
-      <c r="I1483" t="inlineStr"/>
-    </row>
-    <row r="1484">
-      <c r="A1484" t="inlineStr">
-        <is>
-          <t>Title: Skip the Line: Statue of Liberty with Pedestal Access and Ellis Island Ticket</t>
-        </is>
-      </c>
-      <c r="B1484" t="inlineStr"/>
-      <c r="C1484" t="inlineStr"/>
-      <c r="D1484" t="inlineStr"/>
-      <c r="E1484" t="inlineStr"/>
-      <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr"/>
-      <c r="H1484" t="inlineStr"/>
-      <c r="I1484" t="inlineStr"/>
-    </row>
-    <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1485" t="inlineStr"/>
-      <c r="C1485" t="inlineStr"/>
-      <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr"/>
-      <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
-      <c r="H1485" t="inlineStr"/>
-      <c r="I1485" t="inlineStr"/>
-    </row>
-    <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1486" t="inlineStr"/>
-      <c r="C1486" t="inlineStr"/>
-      <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr"/>
-      <c r="H1486" t="inlineStr"/>
-      <c r="I1486" t="inlineStr"/>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 31003P36</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr"/>
-      <c r="C1487" t="inlineStr"/>
-      <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr"/>
-      <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr"/>
-      <c r="I1487" t="inlineStr"/>
-    </row>
-    <row r="1488">
-      <c r="A1488" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the Statue of Liberty Museum and Ellis Island. Tour the Lower East Side, the ultimate immigrant neighborhood. Tour includes samples from The Pickle Guys, Kossar’s and Yonah Schimmel Knish.</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr"/>
-      <c r="C1488" t="inlineStr"/>
-      <c r="D1488" t="inlineStr"/>
-      <c r="E1488" t="inlineStr"/>
-      <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr"/>
-      <c r="I1488" t="inlineStr"/>
-    </row>
-    <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty Ellis Island and Tastes of the Lower East Side Combo Tour</t>
-        </is>
-      </c>
-      <c r="B1489" t="inlineStr"/>
-      <c r="C1489" t="inlineStr"/>
-      <c r="D1489" t="inlineStr"/>
-      <c r="E1489" t="inlineStr"/>
-      <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
-      <c r="H1489" t="inlineStr"/>
-      <c r="I1489" t="inlineStr"/>
-    </row>
-    <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1490" t="inlineStr"/>
-      <c r="C1490" t="inlineStr"/>
-      <c r="D1490" t="inlineStr"/>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
-      <c r="H1490" t="inlineStr"/>
-      <c r="I1490" t="inlineStr"/>
-    </row>
-    <row r="1491">
-      <c r="A1491" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr"/>
-      <c r="C1491" t="inlineStr"/>
-      <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr"/>
-      <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
-      <c r="H1491" t="inlineStr"/>
-      <c r="I1491" t="inlineStr"/>
-    </row>
-    <row r="1492">
-      <c r="A1492" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90219P278</t>
-        </is>
-      </c>
-      <c r="B1492" t="inlineStr"/>
-      <c r="C1492" t="inlineStr"/>
-      <c r="D1492" t="inlineStr"/>
-      <c r="E1492" t="inlineStr"/>
-      <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr"/>
-      <c r="H1492" t="inlineStr"/>
-      <c r="I1492" t="inlineStr"/>
-    </row>
-    <row r="1493">
-      <c r="A1493" t="inlineStr">
-        <is>
-          <t>Summarized description: Climb to the pedestal of the Statue of Liberty for impressive views of Manhattan. Walk the Stairs of Separation at Ellis Island Immigration Museum.</t>
-        </is>
-      </c>
-      <c r="B1493" t="inlineStr"/>
-      <c r="C1493" t="inlineStr"/>
-      <c r="D1493" t="inlineStr"/>
-      <c r="E1493" t="inlineStr"/>
-      <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr"/>
-      <c r="I1493" t="inlineStr"/>
-    </row>
-    <row r="1494">
-      <c r="A1494" t="inlineStr">
-        <is>
-          <t>Title: New York City Greatest Statue of Liberty &amp; Ellis Island Early Access Tour</t>
-        </is>
-      </c>
-      <c r="B1494" t="inlineStr"/>
-      <c r="C1494" t="inlineStr"/>
-      <c r="D1494" t="inlineStr"/>
-      <c r="E1494" t="inlineStr"/>
-      <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr"/>
-      <c r="H1494" t="inlineStr"/>
-      <c r="I1494" t="inlineStr"/>
-    </row>
-    <row r="1495">
-      <c r="A1495" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1495" t="inlineStr"/>
-      <c r="C1495" t="inlineStr"/>
-      <c r="D1495" t="inlineStr"/>
-      <c r="E1495" t="inlineStr"/>
-      <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr"/>
-      <c r="I1495" t="inlineStr"/>
-    </row>
-    <row r="1496">
-      <c r="A1496" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1496" t="inlineStr"/>
-      <c r="C1496" t="inlineStr"/>
-      <c r="D1496" t="inlineStr"/>
-      <c r="E1496" t="inlineStr"/>
-      <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr"/>
-      <c r="I1496" t="inlineStr"/>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 441874P1</t>
-        </is>
-      </c>
-      <c r="B1497" t="inlineStr"/>
-      <c r="C1497" t="inlineStr"/>
-      <c r="D1497" t="inlineStr"/>
-      <c r="E1497" t="inlineStr"/>
-      <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr"/>
-      <c r="H1497" t="inlineStr"/>
-      <c r="I1497" t="inlineStr"/>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>Summarized description: All aboard the Emerald Princess going along the Hudson River. No cheap experience here only the best customer service. Admire famous New York City landmarks such as Ellis Island, the Empire State Building.</t>
-        </is>
-      </c>
-      <c r="B1498" t="inlineStr"/>
-      <c r="C1498" t="inlineStr"/>
-      <c r="D1498" t="inlineStr"/>
-      <c r="E1498" t="inlineStr"/>
-      <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr"/>
-      <c r="H1498" t="inlineStr"/>
-      <c r="I1498" t="inlineStr"/>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty sightseeing boat tour aboard Emerald Princess</t>
-        </is>
-      </c>
-      <c r="B1499" t="inlineStr"/>
-      <c r="C1499" t="inlineStr"/>
-      <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
-      <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr"/>
-      <c r="I1499" t="inlineStr"/>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr"/>
-      <c r="C1500" t="inlineStr"/>
-      <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
-      <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
-      <c r="H1500" t="inlineStr"/>
-      <c r="I1500" t="inlineStr"/>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Cruises']</t>
-        </is>
-      </c>
-      <c r="B1501" t="inlineStr"/>
-      <c r="C1501" t="inlineStr"/>
-      <c r="D1501" t="inlineStr"/>
-      <c r="E1501" t="inlineStr"/>
-      <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="inlineStr"/>
-      <c r="I1501" t="inlineStr"/>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 175348P13</t>
-        </is>
-      </c>
-      <c r="B1502" t="inlineStr"/>
-      <c r="C1502" t="inlineStr"/>
-      <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr"/>
-      <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
-      <c r="H1502" t="inlineStr"/>
-      <c r="I1502" t="inlineStr"/>
-    </row>
-    <row r="1503">
-      <c r="A1503" t="inlineStr">
-        <is>
-          <t>Summarized description: 30+ New York Sights in one tour! Fun local guide will guide you on an exploration of New York’s major landmarks. After the walking tour you will visit New York's famous Statue of Liberty.</t>
-        </is>
-      </c>
-      <c r="B1503" t="inlineStr"/>
-      <c r="C1503" t="inlineStr"/>
-      <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
-      <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr"/>
-      <c r="H1503" t="inlineStr"/>
-      <c r="I1503" t="inlineStr"/>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr">
-        <is>
-          <t>Title: Visit Ellis Island &amp; Statue of Liberty &amp; See 30 New York Sights (Walking Tour)</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr"/>
-      <c r="C1504" t="inlineStr"/>
-      <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr"/>
-      <c r="I1504" t="inlineStr"/>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1505" t="inlineStr"/>
-      <c r="C1505" t="inlineStr"/>
-      <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr"/>
-      <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
-      <c r="H1505" t="inlineStr"/>
-      <c r="I1505" t="inlineStr"/>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr"/>
-      <c r="C1506" t="inlineStr"/>
-      <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
-      <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr"/>
-      <c r="I1506" t="inlineStr"/>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 75760P157</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr"/>
-      <c r="C1507" t="inlineStr"/>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr"/>
-      <c r="I1507" t="inlineStr"/>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>Summarized description: 20+ New York Sights in one tour! Fun local guide!! Enjoy a seamless visit to the Statue of Liberty and Ellis Island in New York Harbour. This will give you the opportunity to see New York in 1 day!</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr"/>
-      <c r="C1508" t="inlineStr"/>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr"/>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr"/>
-      <c r="I1508" t="inlineStr"/>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: New York: Little Italy &amp; China Town Walking Tour &amp; Visit The Statue of Liberty </t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr"/>
-      <c r="C1509" t="inlineStr"/>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr"/>
-      <c r="I1509" t="inlineStr"/>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr"/>
-      <c r="C1510" t="inlineStr"/>
-      <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr"/>
-      <c r="I1510" t="inlineStr"/>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr"/>
-      <c r="C1511" t="inlineStr"/>
-      <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr"/>
-      <c r="I1511" t="inlineStr"/>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr"/>
-      <c r="C1512" t="inlineStr"/>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr"/>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr"/>
-      <c r="H1512" t="inlineStr"/>
-      <c r="I1512" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/5250LIBERTYELLIS.xlsx
+++ b/experiment_results/5250LIBERTYELLIS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1417"/>
+  <dimension ref="A1:I1412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Aerial Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -1971,7 +1971,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Aerial Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Modern Attractions']</t>
+          <t>Category: ['Museums', 'City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7521,7 +7521,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B469" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -9171,7 +9171,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B579" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12471,7 +12471,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B799" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13221,7 +13221,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14346,7 +14346,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14796,7 +14796,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14946,7 +14946,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -15021,7 +15021,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15171,7 +15171,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15246,7 +15246,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Aerial Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7167P20</t>
+          <t>PRODUCTCODE: 15081P220</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Ellis Island and Liberty Island on this combo excursion. Includes ferry rides, entrance tickets to both the Statue of Liberty Museum and the Ellis Island Immigration Museum.</t>
+          <t>Summarized description: Take a 30-minute orientation tour of Statue of Liberty and enjoy fast track express access to the ferry. Self-guided audio tour available in English, French, German, Spanish, Italian, Japanese, Mandarin, Russian and Arabic.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Tour: Museum, Statue Grounds &amp; Battery Park</t>
+          <t>Title: Statue of Liberty Express PreFerry Ticket+ Museum 1st TOUR 8:30am</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 31</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P19</t>
+          <t>PRODUCTCODE: 7167P20</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Save precious time by pre purchasing reserve-line tickets for the ferry to Liberty and Ellis islands. Take in views of New York Harbor during the ferry ride across. Upgrade to enjoy a guide with knowledge and history of of both the Statue of Liberty &amp; Ellis Island.</t>
+          <t>Summarized description: Visit Ellis Island and Liberty Island on this combo excursion. Includes ferry rides, entrance tickets to both the Statue of Liberty Museum and the Ellis Island Immigration Museum.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty Express Tour-8:30am Early Morning Departure </t>
+          <t>Title: Statue of Liberty Tour: Museum, Statue Grounds &amp; Battery Park</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 30</t>
+          <t>TotalReviews: 31</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P1</t>
+          <t>PRODUCTCODE: 74526P19</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Explore with audio guides in 9 languages or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island in English. Take a 30 minute orientation tour in English of the Statue of Liberty and Ellis Island with a live English speaking tour guide.</t>
+          <t>Summarized description: Save precious time by pre purchasing reserve-line tickets for the ferry to Liberty and Ellis islands. Take in views of New York Harbor during the ferry ride across. Upgrade to enjoy a guide with knowledge and history of of both the Statue of Liberty &amp; Ellis Island.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty, Ellis Island &amp; Round trip Ferry</t>
+          <t xml:space="preserve">Title: Statue of Liberty Express Tour-8:30am Early Morning Departure </t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 28</t>
+          <t>TotalReviews: 30</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7167P61</t>
+          <t>PRODUCTCODE: 195909P1</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: The Statue of Liberty's Pedestal offers spectacular views over New York Harbor. Discover the fascinating story of Lady Liberty as you make your way up 215 steps.</t>
+          <t>Summarized description: Explore with audio guides in 9 languages or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island in English. Take a 30 minute orientation tour in English of the Statue of Liberty and Ellis Island with a live English speaking tour guide.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty with Pedestal Access &amp; Ellis Island Tour</t>
+          <t>Title: Statue of Liberty, Ellis Island &amp; Round trip Ferry</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 28</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P190</t>
+          <t>PRODUCTCODE: 7167P61</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Take a 30-minute guided tour of Battery Park and then get guaranteed priority access to the Ferry Reserve line for the Statue of Liberty. Explore with audio guides in 9 different languages.</t>
+          <t>Summarized description: The Statue of Liberty's Pedestal offers spectacular views over New York Harbor. Discover the fascinating story of Lady Liberty as you make your way up 215 steps.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Ellis Island PreFerry Tour - 1st Tour 8:30am</t>
+          <t>Title: Statue of Liberty with Pedestal Access &amp; Ellis Island Tour</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Aerial Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P162</t>
+          <t>PRODUCTCODE: 15081P190</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description:  Ellis Island was the Gateway to America, and on this tour you will learn more about the journey and the struggle for a new future. The site of the Statue of Liberty brought hope of freedom and peace.</t>
+          <t>Summarized description: Take a 30-minute guided tour of Battery Park and then get guaranteed priority access to the Ferry Reserve line for the Statue of Liberty. Explore with audio guides in 9 different languages.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Ellis Island &amp; Statue of Liberty Tour - 8:30am First Tour </t>
+          <t>Title: Statue of Liberty Ellis Island PreFerry Tour - 1st Tour 8:30am</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108074P1</t>
+          <t>PRODUCTCODE: 15081P162</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: YES Tours NYC offers tours of the Statue of Liberty and Ellis Island. All guides have family that came through Ellis Island, and offer expert stories.</t>
+          <t>Summarized description:  Ellis Island was the Gateway to America, and on this tour you will learn more about the journey and the struggle for a new future. The site of the Statue of Liberty brought hope of freedom and peace.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island</t>
+          <t xml:space="preserve">Title: Ellis Island &amp; Statue of Liberty Tour - 8:30am First Tour </t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 43656P17</t>
+          <t>PRODUCTCODE: 108074P1</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Discover America’s most famous port of entry at Ellis island, including the iconic Statue of Liberty. Retrace the steps of over 12 million immigrants looking for a new life in the United States.</t>
+          <t>Summarized description: YES Tours NYC offers tours of the Statue of Liberty and Ellis Island. All guides have family that came through Ellis Island, and offer expert stories.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island Tour Semi-Private 8ppl Max</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31003P30</t>
+          <t>PRODUCTCODE: 43656P17</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Small group tour includes exclusive access to the pedestal of the Statue of Liberty. Learn about American Immigration from the late 19th to early 20th Century.</t>
+          <t>Summarized description: Discover America’s most famous port of entry at Ellis island, including the iconic Statue of Liberty. Retrace the steps of over 12 million immigrants looking for a new life in the United States.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Small-Group Tour in Various Languages</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island Tour Semi-Private 8ppl Max</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P169</t>
+          <t>PRODUCTCODE: 31003P30</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Explore with audio guides or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island. Take a 30-minute guided tour of Battery Park and then get guaranteed access to the Statue of Liberty.</t>
+          <t>Summarized description: Small group tour includes exclusive access to the pedestal of the Statue of Liberty. Learn about American Immigration from the late 19th to early 20th Century.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: NYC:Statue of Liberty Ellis Island+Roundtrip Ferry 8:30 1st Tour</t>
+          <t>Title: Statue of Liberty and Ellis Island Small-Group Tour in Various Languages</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P4</t>
+          <t>PRODUCTCODE: 15081P169</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Your ticket grants you exclusive access to the Fort Wood section of the monument up to for a truly immersive experience on your own. Take a self-guided tour with audio headsets that come in multiple languages.</t>
+          <t>Summarized description: Explore with audio guides or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island. Take a 30-minute guided tour of Battery Park and then get guaranteed access to the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island: Skip-the-Line Tickets &amp; round trip Ferry</t>
+          <t>Title: NYC:Statue of Liberty Ellis Island+Roundtrip Ferry 8:30 1st Tour</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P155</t>
+          <t>PRODUCTCODE: 195909P4</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: See Battery Park, the Statue of Liberty, and Ellis Island. Enjoy optional upgrade to a walking tour to the 9/11 Memorial Pools.</t>
+          <t>Summarized description: Your ticket grants you exclusive access to the Fort Wood section of the monument up to for a truly immersive experience on your own. Take a self-guided tour with audio headsets that come in multiple languages.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty, Ellis Island Pre-Ferry tour Starts 8:30am</t>
+          <t>Title: Statue of Liberty and Ellis Island: Skip-the-Line Tickets &amp; round trip Ferry</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 62527P25</t>
+          <t>PRODUCTCODE: 15081P155</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the Statue of Liberty and the Immigration Museum at Ellis Island. Enjoy breath-taking views of the New York City skyline from the Ellis Island observation deck.</t>
+          <t>Summarized description: See Battery Park, the Statue of Liberty, and Ellis Island. Enjoy optional upgrade to a walking tour to the 9/11 Memorial Pools.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: From Battery Park: Statue of Liberty Tour &amp; Ellis Island</t>
+          <t>Title: Statue of Liberty, Ellis Island Pre-Ferry tour Starts 8:30am</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P149</t>
+          <t>PRODUCTCODE: 62527P25</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Ellis Island and Statue of Liberty on this Private fully escorted walking tour. Enjoy a personalized overview of the Battery Park, Liberty Island, Ellis Island, and Ground Zero.</t>
+          <t>Summarized description: Learn about the Statue of Liberty and the Immigration Museum at Ellis Island. Enjoy breath-taking views of the New York City skyline from the Ellis Island observation deck.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour in Spanish</t>
+          <t>Title: From Battery Park: Statue of Liberty Tour &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 62527P34</t>
+          <t>PRODUCTCODE: 15081P149</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the Statue of Liberty and the Immigration Museum at Ellis Island. Enjoy breath-taking views of the New York City skyline from the Ellis Island observation deck.</t>
+          <t>Summarized description: Visit Ellis Island and Statue of Liberty on this Private fully escorted walking tour. Enjoy a personalized overview of the Battery Park, Liberty Island, Ellis Island, and Ground Zero.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Private tour: Statue of Liberty &amp; Ellis Island</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour in Spanish</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 43656P18</t>
+          <t>PRODUCTCODE: 62527P34</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Explore these New York landmarks on a 3 hour exclusive guided tour. Follow in the footsteps of over 12 million foreigners seeking roads paved with gold in the New World.</t>
+          <t>Summarized description: Learn about the Statue of Liberty and the Immigration Museum at Ellis Island. Enjoy breath-taking views of the New York City skyline from the Ellis Island observation deck.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island - Exclusive Guided Tour </t>
+          <t>Title: Private tour: Statue of Liberty &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P1</t>
+          <t>PRODUCTCODE: 43656P18</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Our First Tour meets &amp; departs at 8:30am for an early start of your day and to avoid the big crowds. See two iconic landmarks of American history, Ellis Island &amp; the Statue of Liberty.</t>
+          <t>Summarized description: Explore these New York landmarks on a 3 hour exclusive guided tour. Follow in the footsteps of over 12 million foreigners seeking roads paved with gold in the New World.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island Guided Tour-8:30am 1st Departure</t>
+          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island - Exclusive Guided Tour </t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 324821P66</t>
+          <t>PRODUCTCODE: 74526P1</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Take a ferry cruise to Liberty Island and access the Statue of Liberty.</t>
+          <t>Summarized description: Our First Tour meets &amp; departs at 8:30am for an early start of your day and to avoid the big crowds. See two iconic landmarks of American history, Ellis Island &amp; the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Skip-the-Line Statue of Liberty Private Tour with Tickets</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island Guided Tour-8:30am 1st Departure</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P31</t>
+          <t>PRODUCTCODE: 324821P66</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: 9/11 Memorial &amp; Museum honors the nearly 3,000 people killed in the terrorist attacks of September 11, 2001 and February 26, 1993. VIP reserve boarding on ferry to take them to Liberty Island and Ellis Island where they can explore all of the history at their leisure.</t>
+          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Take a ferry cruise to Liberty Island and access the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: NOW OPEN: Statue of Liberty Cruise &amp; Choice 911 Museum OR Statue of Liberty Tour</t>
+          <t>Title: Skip-the-Line Statue of Liberty Private Tour with Tickets</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13616P19</t>
+          <t>PRODUCTCODE: 74526P31</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
+          <t>Summarized description: 9/11 Memorial &amp; Museum honors the nearly 3,000 people killed in the terrorist attacks of September 11, 2001 and February 26, 1993. VIP reserve boarding on ferry to take them to Liberty Island and Ellis Island where they can explore all of the history at their leisure.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
+          <t>Title: NOW OPEN: Statue of Liberty Cruise &amp; Choice 911 Museum OR Statue of Liberty Tour</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 70429P1</t>
+          <t>PRODUCTCODE: 13616P19</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history and construction of the Statue of Liberty. Then hop back onto the ferry to experience Ellis Island. Learn about the incredible history of the island and the intense process of immigration to America.</t>
+          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Early Access Statue of Liberty and Ellis Island Guided Tour</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P347</t>
+          <t>PRODUCTCODE: 70429P1</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close to within 100-feet of the Statue of Liberty and Ellis Island for the most incredible photos opportunities. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park, and more.</t>
+          <t>Summarized description: Learn about the history and construction of the Statue of Liberty. Then hop back onto the ferry to experience Ellis Island. Learn about the incredible history of the island and the intense process of immigration to America.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Sunset Cruise in New York Shared Tour</t>
+          <t>Title: Early Access Statue of Liberty and Ellis Island Guided Tour</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 162649P3</t>
+          <t>PRODUCTCODE: 15081P347</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Ranger guided Liberty and Ellis Island tours and audio tours. Explore the immigration museum to hear the stories about the millions people that arrived in New York in search of a better life. Reserved Access Statue of Liberty Tickets feature a professional concierge that will pick up your tickets.</t>
+          <t>Summarized description: Get up close to within 100-feet of the Statue of Liberty and Ellis Island for the most incredible photos opportunities. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park, and more.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Pedestal and Ellis Island Skip-the-Line Ticket</t>
+          <t>Title: Statue of Liberty and Ellis Island Sunset Cruise in New York Shared Tour</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210206P184</t>
+          <t>PRODUCTCODE: 162649P3</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: The multilingual self-guided tour will allow you to explore both monuments at your own pace. The tour includes a ready-to-go itinerary, GPS navigation and descriptions.</t>
+          <t>Summarized description: Ranger guided Liberty and Ellis Island tours and audio tours. Explore the immigration museum to hear the stories about the millions people that arrived in New York in search of a better life. Reserved Access Statue of Liberty Tickets feature a professional concierge that will pick up your tickets.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Admission Pass in New York</t>
+          <t>Title: Statue of Liberty Pedestal and Ellis Island Skip-the-Line Ticket</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15471P9</t>
+          <t>PRODUCTCODE: 210206P184</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: You will always be accompanied by a guide from the beginning of the excursion to the end of it. This tour, although it is not a private tour, will be accompanied at all times by the guide who will explain every detail and monument.</t>
+          <t>Summarized description: The multilingual self-guided tour will allow you to explore both monuments at your own pace. The tour includes a ready-to-go itinerary, GPS navigation and descriptions.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Half Day Tour in New York</t>
+          <t>Title: Statue of Liberty and Ellis Island Admission Pass in New York</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73108P2</t>
+          <t>PRODUCTCODE: 15471P9</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Tour includes the ferry to the Statue of Liberty and entrance inside the pedestal of the statue. Tour includes Ellis Island before traveling to Ellis Island. Have fun on a tour with local New Yorker trying to make it in the arts.</t>
+          <t>Summarized description: You will always be accompanied by a guide from the beginning of the excursion to the end of it. This tour, although it is not a private tour, will be accompanied at all times by the guide who will explain every detail and monument.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Private Statue of Liberty and Ellis Island Tour with Local</t>
+          <t>Title: Statue of Liberty Half Day Tour in New York</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 364159P1</t>
+          <t>PRODUCTCODE: 73108P2</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: I know the real and detailed story of the Statue of Liberty and the Ellis Island immigration process. I have given more than 1,100 tour at this location. I am also a photographer so I can help choosing the best location.</t>
+          <t>Summarized description: Tour includes the ferry to the Statue of Liberty and entrance inside the pedestal of the statue. Tour includes Ellis Island before traveling to Ellis Island. Have fun on a tour with local New Yorker trying to make it in the arts.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour with Museum access</t>
+          <t>Title: Private Statue of Liberty and Ellis Island Tour with Local</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 42097P11</t>
+          <t>PRODUCTCODE: 364159P1</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Guided Tour of Liberty Island and Ellis Island with an expert customize langues-speaking guide. Access to the Pedestal Museum at Liberty Island with Statue of Liberty tickets.</t>
+          <t>Summarized description: I know the real and detailed story of the Statue of Liberty and the Ellis Island immigration process. I have given more than 1,100 tour at this location. I am also a photographer so I can help choosing the best location.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tours - NYC</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour with Museum access</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73108P1</t>
+          <t>PRODUCTCODE: 42097P11</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Tour includes the ferry to the Statue of Liberty and entrance inside the pedestal. Ellis Island includes a highlight tour of the Immigration museum. We will make sure no one on the tour is bored!</t>
+          <t>Summarized description: Guided Tour of Liberty Island and Ellis Island with an expert customize langues-speaking guide. Access to the Pedestal Museum at Liberty Island with Statue of Liberty tickets.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Fun Statue of Liberty and Ellis Island Tour with Energetic University Students</t>
+          <t>Title: Statue of Liberty and Ellis Island Tours - NYC</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P2</t>
+          <t>PRODUCTCODE: 73108P1</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: We will visit the Statue of Liberty, Ellis Island and Battery Park. We will also visit ground zero and 911 memorial pools. At the conclusion we will go in the ferry back to Battery Park where you will have the incredible NYC Skyline as a back drop.</t>
+          <t>Summarized description: Tour includes the ferry to the Statue of Liberty and entrance inside the pedestal. Ellis Island includes a highlight tour of the Immigration museum. We will make sure no one on the tour is bored!</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty, Ellis Island &amp; 911 Memorial Pools Early morning 5hr Tour</t>
+          <t>Title: Fun Statue of Liberty and Ellis Island Tour with Energetic University Students</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P329</t>
+          <t>PRODUCTCODE: 336379P2</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Set sail to see Lady Liberty with up close views from the water. Cruise next to Ellis Island, the most famous entry point to the United States. See One World Observatory and the Brooklyn Bridge.</t>
+          <t>Summarized description: We will visit the Statue of Liberty, Ellis Island and Battery Park. We will also visit ground zero and 911 memorial pools. At the conclusion we will go in the ferry back to Battery Park where you will have the incredible NYC Skyline as a back drop.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Ellis Island Cruise with One World Trade Ticket</t>
+          <t>Title: Statue of Liberty, Ellis Island &amp; 911 Memorial Pools Early morning 5hr Tour</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P26</t>
+          <t>PRODUCTCODE: 15081P204</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Get up to within 100 feet of the Statue of Liberty and Ellis Island. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
+          <t>Summarized description: Sightseeing Cruise will take you right next to the Statue of Liberty and Ellis Island. The photo opportunities will be unforgettable. This is a 60 Minute Sightseeing Cruise.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island Sightseeing Cruise </t>
+          <t xml:space="preserve">Title: Statue of Liberty and Ellis Island Sightseeing Cruise from Pier 36 </t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 70429P3</t>
+          <t>PRODUCTCODE: 74526P26</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history and construction of the Statue of Liberty. Then hop back onto the ferry to experience Ellis Island and learn about the incredible history of the island.</t>
+          <t>Summarized description: Get up to within 100 feet of the Statue of Liberty and Ellis Island. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Guided Tour Lead By Professional Voice Actor</t>
+          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island Sightseeing Cruise </t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 75760P128</t>
+          <t>PRODUCTCODE: 70429P3</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: 30+ New York Sights in one tour! Fun local guide. Visit Ellis Island &amp; The Statue of Liberty after the walking tour. This will give you a good idea of the history, culture &amp; legends of one of the world best-loved cities.</t>
+          <t>Summarized description: Learn about the history and construction of the Statue of Liberty. Then hop back onto the ferry to experience Ellis Island and learn about the incredible history of the island.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: See 30 New York Sights (Walking Tour) and Visit Ellis Island &amp; Statue of Liberty</t>
+          <t>Title: Statue of Liberty and Ellis Island Guided Tour Lead By Professional Voice Actor</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P189</t>
+          <t>PRODUCTCODE: 75760P128</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
+          <t>Summarized description: 30+ New York Sights in one tour! Fun local guide. Visit Ellis Island &amp; The Statue of Liberty after the walking tour. This will give you a good idea of the history, culture &amp; legends of one of the world best-loved cities.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
+          <t>Title: See 30 New York Sights (Walking Tour) and Visit Ellis Island &amp; Statue of Liberty</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P9</t>
+          <t>PRODUCTCODE: 90219P189</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: The Lady Liberty express cruise takes passengers to see the Statue of Liberty. Depart from under the Brooklyn Bridge located in lower manhattan. See the NYC Skyline and continue on your fun day in New York City.</t>
+          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty Express Sightseeing cruise in New York </t>
+          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3763P30</t>
+          <t>PRODUCTCODE: 336379P9</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: The Liberty Super Express is a 40-minute round-trip sightseeing cruise from Battery Park to near the Statue of Liberty and back. This tour is narrated by tour guides so travelers enjoy fun, onboard entertainment.</t>
+          <t>Summarized description: The Lady Liberty express cruise takes passengers to see the Statue of Liberty. Depart from under the Brooklyn Bridge located in lower manhattan. See the NYC Skyline and continue on your fun day in New York City.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Super Express Sightseeing Cruise in NYC</t>
+          <t xml:space="preserve">Title: Statue of Liberty Express Sightseeing cruise in New York </t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19312,7 +19312,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P3</t>
+          <t>PRODUCTCODE: 3763P30</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: 60 minute boat cruise of the Statue of Liberty and Ellis Island with a live English speaking tour guide. There is a cash bar on board and food for purchase at the concession stand.</t>
+          <t>Summarized description: The Liberty Super Express is a 40-minute round-trip sightseeing cruise from Battery Park to near the Statue of Liberty and back. This tour is narrated by tour guides so travelers enjoy fun, onboard entertainment.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Landmark 60-minute NYC Cruise Near the Statue of Liberty </t>
+          <t>Title: Statue of Liberty Super Express Sightseeing Cruise in NYC</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['City Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 221092P6</t>
+          <t>PRODUCTCODE: 336379P3</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: From The Manhattan At Times Square Hotel (790 7th Ave, New York, NY 10019), you will be accompanied by a guide in Spanish who will take you through Midtown Manhattan to Baterry Park in Downtown. The guide will explain each detail and monument to you until its completion.</t>
+          <t>Summarized description: 60 minute boat cruise of the Statue of Liberty and Ellis Island with a live English speaking tour guide. There is a cash bar on board and food for purchase at the concession stand.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Tour to the Statue of Liberty and Ellis Island in Spanish</t>
+          <t xml:space="preserve">Title: Landmark 60-minute NYC Cruise Near the Statue of Liberty </t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 324821P297</t>
+          <t>PRODUCTCODE: 221092P6</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: This option includes tickets for a round-way ferry cruise and access to the Statue of Liberty Pedestal. This option includes a 1,5-hour transfer time and a guided tour of Liberty Island and Ellis Island.</t>
+          <t>Summarized description: From The Manhattan At Times Square Hotel (790 7th Ave, New York, NY 10019), you will be accompanied by a guide in Spanish who will take you through Midtown Manhattan to Baterry Park in Downtown. The guide will explain each detail and monument to you until its completion.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty’s Pedestal &amp; Ellis Island Guided Tour</t>
+          <t>Title: Tour to the Statue of Liberty and Ellis Island in Spanish</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5372LIBERTYELLIS</t>
+          <t>PRODUCTCODE: 324821P297</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: The Skip the Line: Statue of Liberty and Ellis Island Walking Tour combines two of America’s must-see historical landmarks in one memorable morning of sightseeing. Accompanied by a knowledgeable local guide, you’ll skip the notoriously long lines at the Battery Park ferry terminal.</t>
+          <t>Summarized description: This option includes tickets for a round-way ferry cruise and access to the Statue of Liberty Pedestal. This option includes a 1,5-hour transfer time and a guided tour of Liberty Island and Ellis Island.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Statue of Liberty Walking Tour</t>
+          <t>Title: Statue of Liberty’s Pedestal &amp; Ellis Island Guided Tour</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 423559P2</t>
+          <t>PRODUCTCODE: 151846P184</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: Liberty Island ferry tour puts you at the center of the experience of this iconic landmark. Your expert guide will share the history, fun facts, and details you would certainly miss if you went on your own.</t>
+          <t>Summarized description: One World Observatory, Statue of Liberty, 9/11 Memorial Pools, Small Group of 20. Professional tour escort. One World Trade Center.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: The Statue of Liberty Walking Guided Tour</t>
+          <t>Title: Complete Lower Manhattan Tour: Statue of Liberty, Ellis Island</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 151846P184</t>
+          <t>PRODUCTCODE: 43581P7</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: One World Observatory, Statue of Liberty, 9/11 Memorial Pools, Small Group of 20. Professional tour escort. One World Trade Center.</t>
+          <t>Summarized description: Our tours are fun and engaging, never dull &amp; boring, and have been carefully and thoughtfully designed for the enjoyment of all ages. For a more intimate, private tour feel at a public tour price, tours generally consist of 16 Guests, or less.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Complete Lower Manhattan Tour: Statue of Liberty, Ellis Island</t>
+          <t>Title: Statue Of Liberty &amp; Ellis Island Small-Group Tour</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 43581P7</t>
+          <t>PRODUCTCODE: 268756P642</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: Our tours are fun and engaging, never dull &amp; boring, and have been carefully and thoughtfully designed for the enjoyment of all ages. For a more intimate, private tour feel at a public tour price, tours generally consist of 16 Guests, or less.</t>
+          <t>Summarized description: Walk in the footsteps of millions of immigrants as you step onto Liberty Island. With our exclusive Skip The Line ticket, you won't waste a moment standing in long queues.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: Statue Of Liberty &amp; Ellis Island Small-Group Tour</t>
+          <t>Title: New York Statue of Liberty and Ellis Island: Skip The Line Ticket</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268756P642</t>
+          <t>PRODUCTCODE: 255071P17</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Walk in the footsteps of millions of immigrants as you step onto Liberty Island. With our exclusive Skip The Line ticket, you won't waste a moment standing in long queues.</t>
+          <t>Summarized description: Tour the world-class attractions Statue of Liberty, Ellis Island National Immigration Museum, Statue of liberty Museum and Ellis Island. Tour at your own pace with accompanying audio guides with multilingual guides.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: New York Statue of Liberty and Ellis Island: Skip The Line Ticket</t>
+          <t>Title: Statue of Liberty and Ellis Island Audio Guide Tour (Priority Access)</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255071P17</t>
+          <t>PRODUCTCODE: 237089P4</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: Tour the world-class attractions Statue of Liberty, Ellis Island National Immigration Museum, Statue of liberty Museum and Ellis Island. Tour at your own pace with accompanying audio guides with multilingual guides.</t>
+          <t>Summarized description: Explore Liberty Island &amp; Ellis Island independently with the audio guides, available in 9 languages. Join the live guided tour of Battery Park in English for 30 minutes and guaranteed access to the Statue of Liberty Pedestal and Ellis Island.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Audio Guide Tour (Priority Access)</t>
+          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Guided Tour</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 237089P4</t>
+          <t>PRODUCTCODE: 263477P6</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Liberty Island &amp; Ellis Island independently with the audio guides, available in 9 languages. Join the live guided tour of Battery Park in English for 30 minutes and guaranteed access to the Statue of Liberty Pedestal and Ellis Island.</t>
+          <t>Summarized description: There are 354 steps leading up to the top of the statue. The cost of the trip does not include the cost of getting to and from the island.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Guided Tour</t>
+          <t>Title: Boat trip (Ellis Island, Statue of Liberty)</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 263477P6</t>
+          <t>PRODUCTCODE: 255730P260</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: There are 354 steps leading up to the top of the statue. The cost of the trip does not include the cost of getting to and from the island.</t>
+          <t>Summarized description: You will learn about the remarkable history of the Statue of Liberty. From here, you will also be able to enjoy a breathtaking view over the Manhattan skylines and harbour. At Ellis Island you will discover the many extraordinary stories of families journeying to New York City.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Boat trip (Ellis Island, Statue of Liberty)</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island: Private Half-Day Guided Tour</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255730P260</t>
+          <t>PRODUCTCODE: 324821P2</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: You will learn about the remarkable history of the Statue of Liberty. From here, you will also be able to enjoy a breathtaking view over the Manhattan skylines and harbour. At Ellis Island you will discover the many extraordinary stories of families journeying to New York City.</t>
+          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Visit New York’s top attraction - the majestic Lady Liberty!</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island: Private Half-Day Guided Tour</t>
+          <t xml:space="preserve">Title: Skip-the-Line Statue of Liberty &amp; Ellis Island Guided Tour </t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 324821P2</t>
+          <t>PRODUCTCODE: 368349P502</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Visit New York’s top attraction - the majestic Lady Liberty!</t>
+          <t>Summarized description: Book a 1,5-hour round-trip transfer to the Statue of Liberty on Liberty Island and the Immigration Museum on Ellis Island. Get up close and personal with New York City's most iconic symbol.</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Skip-the-Line Statue of Liberty &amp; Ellis Island Guided Tour </t>
+          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368349P502</t>
+          <t>PRODUCTCODE: 34997P6</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Summarized description: Book a 1,5-hour round-trip transfer to the Statue of Liberty on Liberty Island and the Immigration Museum on Ellis Island. Get up close and personal with New York City's most iconic symbol.</t>
+          <t>Summarized description: NYC certified expert tour guide to the Statue of Liberty and the Museum. Tour includes Ellis Island, the Museum of Immigration and the Ellis Island Visitors' Center.</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
+          <t>Title: Statue of Liberty and Ellis Island Small-Group Guided Tour</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20377,7 +20377,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 34997P6</t>
+          <t>PRODUCTCODE: 90219P120</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Summarized description: NYC certified expert tour guide to the Statue of Liberty and the Museum. Tour includes Ellis Island, the Museum of Immigration and the Ellis Island Visitors' Center.</t>
+          <t>Summarized description: Visit the Statue of Liberty and Ellis Island at your own pace. Get guaranteed access to the pedestal of the statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Small-Group Guided Tour</t>
+          <t>Title: Best NYC Statue of Liberty Pedestal, Ellis Island and Pre-Ferry Tour</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20452,7 +20452,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P120</t>
+          <t>PRODUCTCODE: 15081P221</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Statue of Liberty and Ellis Island at your own pace. Get guaranteed access to the pedestal of the statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
+          <t>Summarized description: Self-guided audio tour in 9 languages. Fast Track entry to the ferry line and a tour guide to escort you. Statue of Liberty and Ellis Island National Immigration Museum.</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Title: Best NYC Statue of Liberty Pedestal, Ellis Island and Pre-Ferry Tour</t>
+          <t>Title: Statue of Liberty and Ellis Island Ferry Ticket with optional Pedestal Upgrade</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P221</t>
+          <t>PRODUCTCODE: 302481P160</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Summarized description: Self-guided audio tour in 9 languages. Fast Track entry to the ferry line and a tour guide to escort you. Statue of Liberty and Ellis Island National Immigration Museum.</t>
+          <t>Summarized description: The mobile app helps you explore the Statue of Liberty and Ellis Island with a private audio tour (included). You will have a ferry ticket and entrance tickets with a PDF we will send to you. The audio tour has clean navigation, filled with exciting stories from professional guides.</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Ferry Ticket with optional Pedestal Upgrade</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island Tickets with Self-Guided Audio Tour</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 302481P160</t>
+          <t>PRODUCTCODE: 255071P4</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20632,7 +20632,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Summarized description: The mobile app helps you explore the Statue of Liberty and Ellis Island with a private audio tour (included). You will have a ferry ticket and entrance tickets with a PDF we will send to you. The audio tour has clean navigation, filled with exciting stories from professional guides.</t>
+          <t>Summarized description: Explore with audio guides or upgrade to include a fully-escorted guided tour of Liberty Island and Ellis Island. Enjoy sought after access to the pedestal of the Statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island Tickets with Self-Guided Audio Tour</t>
+          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr"/>
@@ -20677,7 +20677,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr"/>
@@ -20692,7 +20692,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255071P4</t>
+          <t>PRODUCTCODE: 186143P67</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr"/>
@@ -20707,7 +20707,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>Summarized description: Explore with audio guides or upgrade to include a fully-escorted guided tour of Liberty Island and Ellis Island. Enjoy sought after access to the pedestal of the Statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
+          <t>Summarized description: Get guaranteed access to the pedestal of the Statue of Liberty. Upgrade to enjoy the services of a live guide during the pre-ferry tour. See the Immigration Museum on Ellis Island.</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr"/>
@@ -20722,7 +20722,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
+          <t>Title: NYC Early Access Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr"/>
@@ -20752,7 +20752,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr"/>
@@ -20767,7 +20767,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 186143P67</t>
+          <t>PRODUCTCODE: 255071P8</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr"/>
@@ -20782,7 +20782,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Summarized description: Get guaranteed access to the pedestal of the Statue of Liberty. Upgrade to enjoy the services of a live guide during the pre-ferry tour. See the Immigration Museum on Ellis Island.</t>
+          <t>Summarized description: Take a guided tour of the Statue of Liberty and Ellis Island with an expert. You’ll have early reserve line access to the Statue Ferry, and have ample time to explore these 2 important attractions on an express 2-hour or 4-hour tour.</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr"/>
@@ -20797,7 +20797,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>Title: NYC Early Access Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island with Pedestal Access : Exclusive Guided Tour</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr"/>
@@ -20827,7 +20827,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr"/>
@@ -20842,7 +20842,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255071P8</t>
+          <t>PRODUCTCODE: 13616P20</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Summarized description: Take a guided tour of the Statue of Liberty and Ellis Island with an expert. You’ll have early reserve line access to the Statue Ferry, and have ample time to explore these 2 important attractions on an express 2-hour or 4-hour tour.</t>
+          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr"/>
@@ -20872,7 +20872,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island with Pedestal Access : Exclusive Guided Tour</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr"/>
@@ -20902,7 +20902,7 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr"/>
@@ -20917,7 +20917,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13616P20</t>
+          <t>PRODUCTCODE: 106680P1</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr"/>
@@ -20932,7 +20932,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
+          <t>Summarized description:  YES Tours NYC offers tours of the Statue of Liberty and Ellis Island. All guides have family that came through Ellis Island, and offer expert stories, memories and narration. Ferry tickets are an additional $18.50 per person.</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 106680P1</t>
+          <t>PRODUCTCODE: 237089P11</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Summarized description:  YES Tours NYC offers tours of the Statue of Liberty and Ellis Island. All guides have family that came through Ellis Island, and offer expert stories, memories and narration. Ferry tickets are an additional $18.50 per person.</t>
+          <t>Summarized description: Ellis Island is home to America’s Immigration Museum and was the spot where tens of millions of immigrants took their first steps towards becoming Americans. Enjoy a small party, live guide, and Ellis Island personal headset radio.</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr"/>
@@ -21022,7 +21022,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour</t>
+          <t>Title: NYC : Exclusive Statue of Liberty Pedestal Express &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr"/>
@@ -21052,7 +21052,7 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr"/>
@@ -21067,7 +21067,7 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 237089P11</t>
+          <t>PRODUCTCODE: 378258P1</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr"/>
@@ -21082,7 +21082,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>Summarized description: Ellis Island is home to America’s Immigration Museum and was the spot where tens of millions of immigrants took their first steps towards becoming Americans. Enjoy a small party, live guide, and Ellis Island personal headset radio.</t>
+          <t>Summarized description: Get up close and personal with New York City's most iconic symbol, the majestic Statue of Liberty. Take a ferry cruise to Liberty Island with a Private Guide. Extended options: private transfers and Ellis Island tour.</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr"/>
@@ -21097,7 +21097,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>Title: NYC : Exclusive Statue of Liberty Pedestal Express &amp; Ellis Island</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr"/>
@@ -21127,7 +21127,7 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 378258P1</t>
+          <t>PRODUCTCODE: 195909P8</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr"/>
@@ -21157,7 +21157,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close and personal with New York City's most iconic symbol, the majestic Statue of Liberty. Take a ferry cruise to Liberty Island with a Private Guide. Extended options: private transfers and Ellis Island tour.</t>
+          <t>Summarized description: Explore with audio guides in 9 languages or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island in English. Take a 30 minute orientation tour in English of the Statue of Liberty and Ellis Island with a live English speaking tour guide.</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr"/>
@@ -21172,7 +21172,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
+          <t>Title: Skip the Line Statue of Liberty Pedestal, Ellis Island &amp; Orientation Tour- Group</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr"/>
@@ -21202,7 +21202,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr"/>
@@ -21217,7 +21217,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P8</t>
+          <t>PRODUCTCODE: 368349P494</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr"/>
@@ -21232,7 +21232,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>Summarized description: Explore with audio guides in 9 languages or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island in English. Take a 30 minute orientation tour in English of the Statue of Liberty and Ellis Island with a live English speaking tour guide.</t>
+          <t>Summarized description: Discover the history and symbolism of the Statue of Liberty with a 5-Star Expert Guide. Take a scenic ferry ride from Downtown New York to Liberty Island. See Lady Liberty up close and snap your souvenir photo. Listen to fun and engaging live commentary in 1 language of your choice.</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr"/>
@@ -21247,7 +21247,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Title: Skip the Line Statue of Liberty Pedestal, Ellis Island &amp; Orientation Tour- Group</t>
+          <t>Title: NYC to The Statue of Liberty Guided Tour by Ferry Cruise</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr"/>
@@ -21292,7 +21292,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368349P494</t>
+          <t>PRODUCTCODE: 42097P15</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the history and symbolism of the Statue of Liberty with a 5-Star Expert Guide. Take a scenic ferry ride from Downtown New York to Liberty Island. See Lady Liberty up close and snap your souvenir photo. Listen to fun and engaging live commentary in 1 language of your choice.</t>
+          <t>Summarized description: Save time in the Ferry Line with Priority "Reserve Line" Ferry Tickets to the Statue of Liberty &amp; Ellis Island. Enjoy personalized service as our onsite Guest Relations Team helps you with a hassle-free check-in experience.</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr"/>
@@ -21322,7 +21322,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>Title: NYC to The Statue of Liberty Guided Tour by Ferry Cruise</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour</t>
         </is>
       </c>
       <c r="B1389" t="inlineStr"/>
@@ -21352,7 +21352,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr"/>
@@ -21367,7 +21367,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 42097P15</t>
+          <t>PRODUCTCODE: 241402P4</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr"/>
@@ -21382,7 +21382,7 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>Summarized description: Save time in the Ferry Line with Priority "Reserve Line" Ferry Tickets to the Statue of Liberty &amp; Ellis Island. Enjoy personalized service as our onsite Guest Relations Team helps you with a hassle-free check-in experience.</t>
+          <t>Summarized description: You're purchasing a Statue of Liberty ticket with INSIDE access to the Pedestal. These tickets normally sell out months in advance. Best of all - your ticket comes with concierge service.</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour</t>
+          <t>Title: Skip the Line: Statue of Liberty with Pedestal Access and Ellis Island Ticket</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr"/>
@@ -21427,7 +21427,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr"/>
@@ -21442,7 +21442,7 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 241402P4</t>
+          <t>PRODUCTCODE: 31003P36</t>
         </is>
       </c>
       <c r="B1397" t="inlineStr"/>
@@ -21457,7 +21457,7 @@
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>Summarized description: You're purchasing a Statue of Liberty ticket with INSIDE access to the Pedestal. These tickets normally sell out months in advance. Best of all - your ticket comes with concierge service.</t>
+          <t>Summarized description: Explore the Statue of Liberty Museum and Ellis Island. Tour the Lower East Side, the ultimate immigrant neighborhood. Tour includes samples from The Pickle Guys, Kossar’s and Yonah Schimmel Knish.</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: Statue of Liberty with Pedestal Access and Ellis Island Ticket</t>
+          <t>Title: Statue of Liberty Ellis Island and Tastes of the Lower East Side Combo Tour</t>
         </is>
       </c>
       <c r="B1399" t="inlineStr"/>
@@ -21502,7 +21502,7 @@
     <row r="1401">
       <c r="A1401" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1401" t="inlineStr"/>
@@ -21517,7 +21517,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31003P36</t>
+          <t>PRODUCTCODE: 90219P278</t>
         </is>
       </c>
       <c r="B1402" t="inlineStr"/>
@@ -21532,7 +21532,7 @@
     <row r="1403">
       <c r="A1403" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the Statue of Liberty Museum and Ellis Island. Tour the Lower East Side, the ultimate immigrant neighborhood. Tour includes samples from The Pickle Guys, Kossar’s and Yonah Schimmel Knish.</t>
+          <t>Summarized description: Climb to the pedestal of the Statue of Liberty for impressive views of Manhattan. Walk the Stairs of Separation at Ellis Island Immigration Museum.</t>
         </is>
       </c>
       <c r="B1403" t="inlineStr"/>
@@ -21547,7 +21547,7 @@
     <row r="1404">
       <c r="A1404" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Ellis Island and Tastes of the Lower East Side Combo Tour</t>
+          <t>Title: New York City Greatest Statue of Liberty &amp; Ellis Island Early Access Tour</t>
         </is>
       </c>
       <c r="B1404" t="inlineStr"/>
@@ -21577,7 +21577,7 @@
     <row r="1406">
       <c r="A1406" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1406" t="inlineStr"/>
@@ -21592,7 +21592,7 @@
     <row r="1407">
       <c r="A1407" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P278</t>
+          <t>PRODUCTCODE: 175348P13</t>
         </is>
       </c>
       <c r="B1407" t="inlineStr"/>
@@ -21607,7 +21607,7 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>Summarized description: Climb to the pedestal of the Statue of Liberty for impressive views of Manhattan. Walk the Stairs of Separation at Ellis Island Immigration Museum.</t>
+          <t>Summarized description: 30+ New York Sights in one tour! Fun local guide will guide you on an exploration of New York’s major landmarks. After the walking tour you will visit New York's famous Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr"/>
@@ -21622,7 +21622,7 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>Title: New York City Greatest Statue of Liberty &amp; Ellis Island Early Access Tour</t>
+          <t>Title: Visit Ellis Island &amp; Statue of Liberty &amp; See 30 New York Sights (Walking Tour)</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr"/>
@@ -21652,7 +21652,7 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr"/>
@@ -21667,7 +21667,7 @@
     <row r="1412">
       <c r="A1412" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 175348P13</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1412" t="inlineStr"/>
@@ -21679,81 +21679,6 @@
       <c r="H1412" t="inlineStr"/>
       <c r="I1412" t="inlineStr"/>
     </row>
-    <row r="1413">
-      <c r="A1413" t="inlineStr">
-        <is>
-          <t>Summarized description: 30+ New York Sights in one tour! Fun local guide will guide you on an exploration of New York’s major landmarks. After the walking tour you will visit New York's famous Statue of Liberty.</t>
-        </is>
-      </c>
-      <c r="B1413" t="inlineStr"/>
-      <c r="C1413" t="inlineStr"/>
-      <c r="D1413" t="inlineStr"/>
-      <c r="E1413" t="inlineStr"/>
-      <c r="F1413" t="inlineStr"/>
-      <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr"/>
-      <c r="I1413" t="inlineStr"/>
-    </row>
-    <row r="1414">
-      <c r="A1414" t="inlineStr">
-        <is>
-          <t>Title: Visit Ellis Island &amp; Statue of Liberty &amp; See 30 New York Sights (Walking Tour)</t>
-        </is>
-      </c>
-      <c r="B1414" t="inlineStr"/>
-      <c r="C1414" t="inlineStr"/>
-      <c r="D1414" t="inlineStr"/>
-      <c r="E1414" t="inlineStr"/>
-      <c r="F1414" t="inlineStr"/>
-      <c r="G1414" t="inlineStr"/>
-      <c r="H1414" t="inlineStr"/>
-      <c r="I1414" t="inlineStr"/>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1415" t="inlineStr"/>
-      <c r="C1415" t="inlineStr"/>
-      <c r="D1415" t="inlineStr"/>
-      <c r="E1415" t="inlineStr"/>
-      <c r="F1415" t="inlineStr"/>
-      <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr"/>
-      <c r="I1415" t="inlineStr"/>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1416" t="inlineStr"/>
-      <c r="C1416" t="inlineStr"/>
-      <c r="D1416" t="inlineStr"/>
-      <c r="E1416" t="inlineStr"/>
-      <c r="F1416" t="inlineStr"/>
-      <c r="G1416" t="inlineStr"/>
-      <c r="H1416" t="inlineStr"/>
-      <c r="I1416" t="inlineStr"/>
-    </row>
-    <row r="1417">
-      <c r="A1417" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1417" t="inlineStr"/>
-      <c r="C1417" t="inlineStr"/>
-      <c r="D1417" t="inlineStr"/>
-      <c r="E1417" t="inlineStr"/>
-      <c r="F1417" t="inlineStr"/>
-      <c r="G1417" t="inlineStr"/>
-      <c r="H1417" t="inlineStr"/>
-      <c r="I1417" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/5250LIBERTYELLIS.xlsx
+++ b/experiment_results/5250LIBERTYELLIS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1412"/>
+  <dimension ref="A1:I1392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Aerial Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Museums']</t>
+          <t>Category: ['Aerial Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Aerial Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5496,7 +5496,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'City Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12921,7 +12921,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14046,7 +14046,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14196,7 +14196,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14946,7 +14946,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -15021,7 +15021,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15171,7 +15171,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15246,7 +15246,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5637P13</t>
+          <t>PRODUCTCODE: 15081P17</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the origin, design, and construction of these iconic American destinations. Listen to the stories of immigrants who made their way through Ellis Island. Enjoy gorgeous and panoramic views of the Statue of Liberty and New York harbor.</t>
+          <t>Summarized description: 5-hour Fully Guided Tour begins with meeting your tour guide at 24 State Street. Make your way to the Statue of Liberty and Ellis Island Ferry. Continue on the Ellis Island where you will hear interesting facts and history.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Secrets of the Statue of Liberty and Ellis Island Guided Tour</t>
+          <t>Title: Statue of Liberty Ellis Island &amp; 9/11 Pools-1st Tour 8:30am</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 94</t>
+          <t>TotalReviews: 152</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7167STATUEOWO</t>
+          <t>PRODUCTCODE: 7167COMPLETE</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Full-day excursion begins with a ferry ride to the Statue of Liberty and Ellis Island. Visit 9/11-related sites like St Paul's Chapel, the Fireman's Memorial and the National September 11 Memorial. End your tour at the One World Observatory.</t>
+          <t>Summarized description: The Statue of Liberty, Ellis Island and the National September 11 Memorial &amp; Museum are all included in the full-day tour. Take a morning ferry tour, enter the pedestal of Lady Liberty and visit the Ellis Island Immigration Museum. Then take a poignant tour of key 9/11 sites like St Paul’s Chapel.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island with One World Observatory</t>
+          <t>Title: Statue of Liberty Tour and 9/11 Museum Entry</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 88</t>
+          <t>TotalReviews: 132</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13616P16</t>
+          <t>PRODUCTCODE: 5637P13</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Includes a live guide at both Statue of Liberty &amp; Ellis Island. You'll be entertained as you learn all about both iconic sites. Book in advance - skip the long ticketing lines and pick up your tickets when you meet your guide.</t>
+          <t>Summarized description: Discover the origin, design, and construction of these iconic American destinations. Listen to the stories of immigrants who made their way through Ellis Island. Enjoy gorgeous and panoramic views of the Statue of Liberty and New York harbor.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Express Guided Tour</t>
+          <t>Title: Secrets of the Statue of Liberty and Ellis Island Guided Tour</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 53</t>
+          <t>TotalReviews: 94</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P20</t>
+          <t>PRODUCTCODE: 7167STATUEOWO</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Liberty Island Statue of Liberty and Ellis Island Immigration Museum. Tickets are general admission. Audio guided tours provide in 13 difference separate languages. Tickets include a 30 minute orientation of both sites.</t>
+          <t>Summarized description: Full-day excursion begins with a ferry ride to the Statue of Liberty and Ellis Island. Visit 9/11-related sites like St Paul's Chapel, the Fireman's Memorial and the National September 11 Memorial. End your tour at the One World Observatory.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island Ferry Tickets - 8:30am 1st Trip</t>
+          <t>Title: Statue of Liberty and Ellis Island with One World Observatory</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 37</t>
+          <t>TotalReviews: 88</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Aerial Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P220</t>
+          <t>PRODUCTCODE: 13616P16</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Take a 30-minute orientation tour of Statue of Liberty and enjoy fast track express access to the ferry. Self-guided audio tour available in English, French, German, Spanish, Italian, Japanese, Mandarin, Russian and Arabic.</t>
+          <t>Summarized description: Includes a live guide at both Statue of Liberty &amp; Ellis Island. You'll be entertained as you learn all about both iconic sites. Book in advance - skip the long ticketing lines and pick up your tickets when you meet your guide.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Express PreFerry Ticket+ Museum 1st TOUR 8:30am</t>
+          <t>Title: Statue of Liberty Express Guided Tour</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 53</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7167P20</t>
+          <t>PRODUCTCODE: 74526P20</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Ellis Island and Liberty Island on this combo excursion. Includes ferry rides, entrance tickets to both the Statue of Liberty Museum and the Ellis Island Immigration Museum.</t>
+          <t>Summarized description: Liberty Island Statue of Liberty and Ellis Island Immigration Museum. Tickets are general admission. Audio guided tours provide in 13 difference separate languages. Tickets include a 30 minute orientation of both sites.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Tour: Museum, Statue Grounds &amp; Battery Park</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island Ferry Tickets - 8:30am 1st Trip</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 31</t>
+          <t>TotalReviews: 37</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P19</t>
+          <t>PRODUCTCODE: 7167P20</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Save precious time by pre purchasing reserve-line tickets for the ferry to Liberty and Ellis islands. Take in views of New York Harbor during the ferry ride across. Upgrade to enjoy a guide with knowledge and history of of both the Statue of Liberty &amp; Ellis Island.</t>
+          <t>Summarized description: Visit Ellis Island and Liberty Island on this combo excursion. Includes ferry rides, entrance tickets to both the Statue of Liberty Museum and the Ellis Island Immigration Museum.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty Express Tour-8:30am Early Morning Departure </t>
+          <t>Title: Statue of Liberty Tour: Museum, Statue Grounds &amp; Battery Park</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 30</t>
+          <t>TotalReviews: 31</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P1</t>
+          <t>PRODUCTCODE: 74526P19</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Explore with audio guides in 9 languages or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island in English. Take a 30 minute orientation tour in English of the Statue of Liberty and Ellis Island with a live English speaking tour guide.</t>
+          <t>Summarized description: Save precious time by pre purchasing reserve-line tickets for the ferry to Liberty and Ellis islands. Take in views of New York Harbor during the ferry ride across. Upgrade to enjoy a guide with knowledge and history of of both the Statue of Liberty &amp; Ellis Island.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty, Ellis Island &amp; Round trip Ferry</t>
+          <t xml:space="preserve">Title: Statue of Liberty Express Tour-8:30am Early Morning Departure </t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 28</t>
+          <t>TotalReviews: 30</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7167P61</t>
+          <t>PRODUCTCODE: 195909P1</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: The Statue of Liberty's Pedestal offers spectacular views over New York Harbor. Discover the fascinating story of Lady Liberty as you make your way up 215 steps.</t>
+          <t>Summarized description: Explore with audio guides in 9 languages or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island in English. Take a 30 minute orientation tour in English of the Statue of Liberty and Ellis Island with a live English speaking tour guide.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty with Pedestal Access &amp; Ellis Island Tour</t>
+          <t>Title: Statue of Liberty, Ellis Island &amp; Round trip Ferry</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 28</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P190</t>
+          <t>PRODUCTCODE: 74526P4</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Take a 30-minute guided tour of Battery Park and then get guaranteed priority access to the Ferry Reserve line for the Statue of Liberty. Explore with audio guides in 9 different languages.</t>
+          <t>Summarized description: Explore with audio guides or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island. Take a 30-minute guided tour of Battery Park and then get guaranteed access to the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Ellis Island PreFerry Tour - 1st Tour 8:30am</t>
+          <t>Title: Statue of Liberty Roundtrip Ferry ticket 1st tour 8:30am</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 22</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P162</t>
+          <t>PRODUCTCODE: 7167P61</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description:  Ellis Island was the Gateway to America, and on this tour you will learn more about the journey and the struggle for a new future. The site of the Statue of Liberty brought hope of freedom and peace.</t>
+          <t>Summarized description: The Statue of Liberty's Pedestal offers spectacular views over New York Harbor. Discover the fascinating story of Lady Liberty as you make your way up 215 steps.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Ellis Island &amp; Statue of Liberty Tour - 8:30am First Tour </t>
+          <t>Title: Statue of Liberty with Pedestal Access &amp; Ellis Island Tour</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 15</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Aerial Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108074P1</t>
+          <t>PRODUCTCODE: 15081P134</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: YES Tours NYC offers tours of the Statue of Liberty and Ellis Island. All guides have family that came through Ellis Island, and offer expert stories.</t>
+          <t>Summarized description: See all that Ellis Island, the Statue of Liberty and Battery Park has to offer in this VIP ACCESS Tour. After meeting your guide at the meeting location, you will then take a 30-minute guided walking tour of Battery Park. Afterward, your guide will escort you through the Reserve Access Line to the statue of Liberty.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island</t>
+          <t>Title: Ellis Island Statue of Liberty Roundtrip Ferry Ride 8:30 1st Tour</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 43656P17</t>
+          <t>PRODUCTCODE: 15081P190</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Discover America’s most famous port of entry at Ellis island, including the iconic Statue of Liberty. Retrace the steps of over 12 million immigrants looking for a new life in the United States.</t>
+          <t>Summarized description: Take a 30-minute guided tour of Battery Park and then get guaranteed priority access to the Ferry Reserve line for the Statue of Liberty. Explore with audio guides in 9 different languages.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island Tour Semi-Private 8ppl Max</t>
+          <t>Title: Statue of Liberty Ellis Island PreFerry Tour - 1st Tour 8:30am</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 16</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 31003P30</t>
+          <t>PRODUCTCODE: 15081P162</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Small group tour includes exclusive access to the pedestal of the Statue of Liberty. Learn about American Immigration from the late 19th to early 20th Century.</t>
+          <t>Summarized description:  Ellis Island was the Gateway to America, and on this tour you will learn more about the journey and the struggle for a new future. The site of the Statue of Liberty brought hope of freedom and peace.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Small-Group Tour in Various Languages</t>
+          <t xml:space="preserve">Title: Ellis Island &amp; Statue of Liberty Tour - 8:30am First Tour </t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 12</t>
+          <t>TotalReviews: 15</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P169</t>
+          <t>PRODUCTCODE: 108074P1</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Explore with audio guides or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island. Take a 30-minute guided tour of Battery Park and then get guaranteed access to the Statue of Liberty.</t>
+          <t>Summarized description: YES Tours NYC offers tours of the Statue of Liberty and Ellis Island. All guides have family that came through Ellis Island, and offer expert stories.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: NYC:Statue of Liberty Ellis Island+Roundtrip Ferry 8:30 1st Tour</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P4</t>
+          <t>PRODUCTCODE: 43656P17</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Your ticket grants you exclusive access to the Fort Wood section of the monument up to for a truly immersive experience on your own. Take a self-guided tour with audio headsets that come in multiple languages.</t>
+          <t>Summarized description: Discover America’s most famous port of entry at Ellis island, including the iconic Statue of Liberty. Retrace the steps of over 12 million immigrants looking for a new life in the United States.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island: Skip-the-Line Tickets &amp; round trip Ferry</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island Tour Semi-Private 8ppl Max</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P155</t>
+          <t>PRODUCTCODE: 31003P30</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: See Battery Park, the Statue of Liberty, and Ellis Island. Enjoy optional upgrade to a walking tour to the 9/11 Memorial Pools.</t>
+          <t>Summarized description: Small group tour includes exclusive access to the pedestal of the Statue of Liberty. Learn about American Immigration from the late 19th to early 20th Century.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty, Ellis Island Pre-Ferry tour Starts 8:30am</t>
+          <t>Title: Statue of Liberty and Ellis Island Small-Group Tour in Various Languages</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 62527P25</t>
+          <t>PRODUCTCODE: 15081P169</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the Statue of Liberty and the Immigration Museum at Ellis Island. Enjoy breath-taking views of the New York City skyline from the Ellis Island observation deck.</t>
+          <t>Summarized description: Explore with audio guides or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island. Take a 30-minute guided tour of Battery Park and then get guaranteed access to the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: From Battery Park: Statue of Liberty Tour &amp; Ellis Island</t>
+          <t>Title: NYC:Statue of Liberty Ellis Island+Roundtrip Ferry 8:30 1st Tour</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P149</t>
+          <t>PRODUCTCODE: 195909P4</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Ellis Island and Statue of Liberty on this Private fully escorted walking tour. Enjoy a personalized overview of the Battery Park, Liberty Island, Ellis Island, and Ground Zero.</t>
+          <t>Summarized description: Your ticket grants you exclusive access to the Fort Wood section of the monument up to for a truly immersive experience on your own. Take a self-guided tour with audio headsets that come in multiple languages.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour in Spanish</t>
+          <t>Title: Statue of Liberty and Ellis Island: Skip-the-Line Tickets &amp; round trip Ferry</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 62527P34</t>
+          <t>PRODUCTCODE: 15081P155</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the Statue of Liberty and the Immigration Museum at Ellis Island. Enjoy breath-taking views of the New York City skyline from the Ellis Island observation deck.</t>
+          <t>Summarized description: See Battery Park, the Statue of Liberty, and Ellis Island. Enjoy optional upgrade to a walking tour to the 9/11 Memorial Pools.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Private tour: Statue of Liberty &amp; Ellis Island</t>
+          <t>Title: Statue of Liberty, Ellis Island Pre-Ferry tour Starts 8:30am</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 43656P18</t>
+          <t>PRODUCTCODE: 62527P25</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Explore these New York landmarks on a 3 hour exclusive guided tour. Follow in the footsteps of over 12 million foreigners seeking roads paved with gold in the New World.</t>
+          <t>Summarized description: Learn about the Statue of Liberty and the Immigration Museum at Ellis Island. Enjoy breath-taking views of the New York City skyline from the Ellis Island observation deck.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island - Exclusive Guided Tour </t>
+          <t>Title: From Battery Park: Statue of Liberty Tour &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P1</t>
+          <t>PRODUCTCODE: 15081P149</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Our First Tour meets &amp; departs at 8:30am for an early start of your day and to avoid the big crowds. See two iconic landmarks of American history, Ellis Island &amp; the Statue of Liberty.</t>
+          <t>Summarized description: Visit Ellis Island and Statue of Liberty on this Private fully escorted walking tour. Enjoy a personalized overview of the Battery Park, Liberty Island, Ellis Island, and Ground Zero.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island Guided Tour-8:30am 1st Departure</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour in Spanish</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 324821P66</t>
+          <t>PRODUCTCODE: 62527P34</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Take a ferry cruise to Liberty Island and access the Statue of Liberty.</t>
+          <t>Summarized description: Learn about the Statue of Liberty and the Immigration Museum at Ellis Island. Enjoy breath-taking views of the New York City skyline from the Ellis Island observation deck.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Skip-the-Line Statue of Liberty Private Tour with Tickets</t>
+          <t>Title: Private tour: Statue of Liberty &amp; Ellis Island</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P31</t>
+          <t>PRODUCTCODE: 43656P18</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: 9/11 Memorial &amp; Museum honors the nearly 3,000 people killed in the terrorist attacks of September 11, 2001 and February 26, 1993. VIP reserve boarding on ferry to take them to Liberty Island and Ellis Island where they can explore all of the history at their leisure.</t>
+          <t>Summarized description: Explore these New York landmarks on a 3 hour exclusive guided tour. Follow in the footsteps of over 12 million foreigners seeking roads paved with gold in the New World.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: NOW OPEN: Statue of Liberty Cruise &amp; Choice 911 Museum OR Statue of Liberty Tour</t>
+          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island - Exclusive Guided Tour </t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13616P19</t>
+          <t>PRODUCTCODE: 74526P1</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
+          <t>Summarized description: Our First Tour meets &amp; departs at 8:30am for an early start of your day and to avoid the big crowds. See two iconic landmarks of American history, Ellis Island &amp; the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island Guided Tour-8:30am 1st Departure</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 70429P1</t>
+          <t>PRODUCTCODE: 324821P66</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history and construction of the Statue of Liberty. Then hop back onto the ferry to experience Ellis Island. Learn about the incredible history of the island and the intense process of immigration to America.</t>
+          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Take a ferry cruise to Liberty Island and access the Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Early Access Statue of Liberty and Ellis Island Guided Tour</t>
+          <t>Title: Skip-the-Line Statue of Liberty Private Tour with Tickets</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P347</t>
+          <t>PRODUCTCODE: 74526P10</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close to within 100-feet of the Statue of Liberty and Ellis Island for the most incredible photos opportunities. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park, and more.</t>
+          <t>Summarized description: This VIP NY tour offers express skip the line access to NYC's Best landmarks. You’ll will visit famous NYC Landmarks on your guided tour. You can upgrade by adding the optional skip-the-line tour of the 9/11 Memorial Museum.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Sunset Cruise in New York Shared Tour</t>
+          <t>Title: Statue of Liberty Roundtrip Ferry Edge Ground Zero &amp; 911 Memorial</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 162649P3</t>
+          <t>PRODUCTCODE: 74526P31</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Ranger guided Liberty and Ellis Island tours and audio tours. Explore the immigration museum to hear the stories about the millions people that arrived in New York in search of a better life. Reserved Access Statue of Liberty Tickets feature a professional concierge that will pick up your tickets.</t>
+          <t>Summarized description: 9/11 Memorial &amp; Museum honors the nearly 3,000 people killed in the terrorist attacks of September 11, 2001 and February 26, 1993. VIP reserve boarding on ferry to take them to Liberty Island and Ellis Island where they can explore all of the history at their leisure.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Pedestal and Ellis Island Skip-the-Line Ticket</t>
+          <t>Title: NOW OPEN: Statue of Liberty Cruise &amp; Choice 911 Museum OR Statue of Liberty Tour</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 210206P184</t>
+          <t>PRODUCTCODE: 13616P19</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: The multilingual self-guided tour will allow you to explore both monuments at your own pace. The tour includes a ready-to-go itinerary, GPS navigation and descriptions.</t>
+          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Admission Pass in New York</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15471P9</t>
+          <t>PRODUCTCODE: 20804P6</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: You will always be accompanied by a guide from the beginning of the excursion to the end of it. This tour, although it is not a private tour, will be accompanied at all times by the guide who will explain every detail and monument.</t>
+          <t>Summarized description: The Statue of Liberty Boat Tour &amp; 9/11 Memorial Guided Tour Combo leads visitors on a guided tour of the 9/ 11 Memorial. The tour also includes transportation to Ellis Island and Liberty Island.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Half Day Tour in New York</t>
+          <t>Title: Statue of Liberty, 9/11 Memorial Guided Tour, Tribute Museum Combo</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'Museums']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73108P2</t>
+          <t>PRODUCTCODE: 70429P1</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Tour includes the ferry to the Statue of Liberty and entrance inside the pedestal of the statue. Tour includes Ellis Island before traveling to Ellis Island. Have fun on a tour with local New Yorker trying to make it in the arts.</t>
+          <t>Summarized description: Learn about the history and construction of the Statue of Liberty. Then hop back onto the ferry to experience Ellis Island. Learn about the incredible history of the island and the intense process of immigration to America.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Private Statue of Liberty and Ellis Island Tour with Local</t>
+          <t>Title: Early Access Statue of Liberty and Ellis Island Guided Tour</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 364159P1</t>
+          <t>PRODUCTCODE: 162649P3</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: I know the real and detailed story of the Statue of Liberty and the Ellis Island immigration process. I have given more than 1,100 tour at this location. I am also a photographer so I can help choosing the best location.</t>
+          <t>Summarized description: Ranger guided Liberty and Ellis Island tours and audio tours. Explore the immigration museum to hear the stories about the millions people that arrived in New York in search of a better life. Reserved Access Statue of Liberty Tickets feature a professional concierge that will pick up your tickets.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour with Museum access</t>
+          <t>Title: Statue of Liberty Pedestal and Ellis Island Skip-the-Line Ticket</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 42097P11</t>
+          <t>PRODUCTCODE: 210206P184</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Guided Tour of Liberty Island and Ellis Island with an expert customize langues-speaking guide. Access to the Pedestal Museum at Liberty Island with Statue of Liberty tickets.</t>
+          <t>Summarized description: The multilingual self-guided tour will allow you to explore both monuments at your own pace. The tour includes a ready-to-go itinerary, GPS navigation and descriptions.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tours - NYC</t>
+          <t>Title: Statue of Liberty and Ellis Island Admission Pass in New York</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73108P1</t>
+          <t>PRODUCTCODE: 73108P2</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Tour includes the ferry to the Statue of Liberty and entrance inside the pedestal. Ellis Island includes a highlight tour of the Immigration museum. We will make sure no one on the tour is bored!</t>
+          <t>Summarized description: Tour includes the ferry to the Statue of Liberty and entrance inside the pedestal of the statue. Tour includes Ellis Island before traveling to Ellis Island. Have fun on a tour with local New Yorker trying to make it in the arts.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Fun Statue of Liberty and Ellis Island Tour with Energetic University Students</t>
+          <t>Title: Private Statue of Liberty and Ellis Island Tour with Local</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P2</t>
+          <t>PRODUCTCODE: 364159P1</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: We will visit the Statue of Liberty, Ellis Island and Battery Park. We will also visit ground zero and 911 memorial pools. At the conclusion we will go in the ferry back to Battery Park where you will have the incredible NYC Skyline as a back drop.</t>
+          <t>Summarized description: I know the real and detailed story of the Statue of Liberty and the Ellis Island immigration process. I have given more than 1,100 tour at this location. I am also a photographer so I can help choosing the best location.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty, Ellis Island &amp; 911 Memorial Pools Early morning 5hr Tour</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour with Museum access</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 107859P737</t>
+          <t>PRODUCTCODE: 42097P11</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: This experience takes you on a boat trip to liberty and Ellis Island. Includes a visit to liberty island and the Ellis Island national immigration museum. As a profound and moving reflection on the nature of the American ideal...Plus the boat ride!</t>
+          <t>Summarized description: Guided Tour of Liberty Island and Ellis Island with an expert customize langues-speaking guide. Access to the Pedestal Museum at Liberty Island with Statue of Liberty tickets.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Skip the Line: USA New York Statue of Liberty Ellis Island + City Guide Ticket</t>
+          <t>Title: Statue of Liberty and Ellis Island Tours - NYC</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 67185P15</t>
+          <t>PRODUCTCODE: 73108P1</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Visits to the National Monument of the Statue of Liberty and Ellis Island are a must stop in the Big Apple, especially for those who visit it for the first time in New York City.</t>
+          <t>Summarized description: Tour includes the ferry to the Statue of Liberty and entrance inside the pedestal. Ellis Island includes a highlight tour of the Immigration museum. We will make sure no one on the tour is bored!</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: Private Tour to the Statue of Liberty and Ellis Island</t>
+          <t>Title: Fun Statue of Liberty and Ellis Island Tour with Energetic University Students</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P1</t>
+          <t>PRODUCTCODE: 107859P737</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Visit to the American Museum of Natural History in New York City. Visit to the Statue of Liberty and Ellis Island. Visit the National Museum of American History in Washington DC.</t>
+          <t>Summarized description: This experience takes you on a boat trip to liberty and Ellis Island. Includes a visit to liberty island and the Ellis Island national immigration museum. As a profound and moving reflection on the nature of the American ideal...Plus the boat ride!</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Guided Tour with local expert</t>
+          <t>Title: Skip the Line: USA New York Statue of Liberty Ellis Island + City Guide Ticket</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 70429P4</t>
+          <t>PRODUCTCODE: 67185P15</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: This express tour allows you to see the biggest attractions in NYC in one short trip. A world class guide and professional story teller will take you to the best places in the New York Harbor.</t>
+          <t>Summarized description: Visits to the National Monument of the Statue of Liberty and Ellis Island are a must stop in the Big Apple, especially for those who visit it for the first time in New York City.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Express Tour With Expert Guide!</t>
+          <t>Title: Private Tour to the Statue of Liberty and Ellis Island</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Museums', 'City Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 241402P3</t>
+          <t>PRODUCTCODE: 70429P4</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: You're purchasing a Statue of Liberty ticket with INSIDE access to the Pedestal. These tickets normally sell out months in advance. Best of all - your ticket comes with concierge service.</t>
+          <t>Summarized description: This express tour allows you to see the biggest attractions in NYC in one short trip. A world class guide and professional story teller will take you to the best places in the New York Harbor.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Pedestal Reserve Access Ticket Includes Ellis Island</t>
+          <t>Title: Statue of Liberty and Ellis Island Express Tour With Expert Guide!</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 70429P2</t>
+          <t>PRODUCTCODE: 241402P3</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history and construction of the Statue of Liberty. Then hop back onto the ferry to experience Ellis Island. Learn about the incredible history of the island and the intense process of immigration to America.</t>
+          <t>Summarized description: You're purchasing a Statue of Liberty ticket with INSIDE access to the Pedestal. These tickets normally sell out months in advance. Best of all - your ticket comes with concierge service.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Private Guided Tour With Expert Guide</t>
+          <t>Title: Statue of Liberty Pedestal Reserve Access Ticket Includes Ellis Island</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P204</t>
+          <t>PRODUCTCODE: 70429P2</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Sightseeing Cruise will take you right next to the Statue of Liberty and Ellis Island. The photo opportunities will be unforgettable. This is a 60 Minute Sightseeing Cruise.</t>
+          <t>Summarized description: Learn about the history and construction of the Statue of Liberty. Then hop back onto the ferry to experience Ellis Island. Learn about the incredible history of the island and the intense process of immigration to America.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty and Ellis Island Sightseeing Cruise from Pier 36 </t>
+          <t>Title: Statue of Liberty and Ellis Island Private Guided Tour With Expert Guide</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74526P26</t>
+          <t>PRODUCTCODE: 15081P95</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Get up to within 100 feet of the Statue of Liberty and Ellis Island. Admire views of One World Trade Center, the Empire State Building, the Brooklyn Bridge, Battery Park and more.</t>
+          <t>Summarized description: All-day tour lets you explore Lady Liberty and Ellis Island on your own. Or upgrade and get a guide for a personalized overview of the island. Enjoy access to the all new Statue of Liberty Museum.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty &amp; Ellis Island Sightseeing Cruise </t>
+          <t>Title: Statue of Liberty Ellis Island Access plus Double-Decker Bus Tour</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P189</t>
+          <t>PRODUCTCODE: 15081P30</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Sail within 100 feet of the Statue of Liberty and Ellis Island. Cruise under the Brooklyn Bridge. Take a walking tour of South Street Seaport and Fulton Fishmarket.</t>
+          <t>Summarized description: Ride a double-decker hop-on hop-off bus for 1 days, including a Downtown loop. Get an escorted walking tour of the State of Liberty, Ellis Island and ground zero.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Memorable 60-Minute Cruise Around the Statue of Liberty &amp; Ellis Island</t>
+          <t>Title: NYC Package: Hop-on Hop-off Bus Tour, Statue of Liberty &amp; 911 Memorial Museum</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P9</t>
+          <t>PRODUCTCODE: 324821P297</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: The Lady Liberty express cruise takes passengers to see the Statue of Liberty. Depart from under the Brooklyn Bridge located in lower manhattan. See the NYC Skyline and continue on your fun day in New York City.</t>
+          <t>Summarized description: This option includes tickets for a round-way ferry cruise and access to the Statue of Liberty Pedestal. This option includes a 1,5-hour transfer time and a guided tour of Liberty Island and Ellis Island.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Statue of Liberty Express Sightseeing cruise in New York </t>
+          <t>Title: Statue of Liberty’s Pedestal &amp; Ellis Island Guided Tour</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19312,7 +19312,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3763P30</t>
+          <t>PRODUCTCODE: 5372LIBERTYELLIS</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: The Liberty Super Express is a 40-minute round-trip sightseeing cruise from Battery Park to near the Statue of Liberty and back. This tour is narrated by tour guides so travelers enjoy fun, onboard entertainment.</t>
+          <t>Summarized description: The Skip the Line: Statue of Liberty and Ellis Island Walking Tour combines two of America’s must-see historical landmarks in one memorable morning of sightseeing. Accompanied by a knowledgeable local guide, you’ll skip the notoriously long lines at the Battery Park ferry terminal.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty Super Express Sightseeing Cruise in NYC</t>
+          <t>Title: Skip the Line: Statue of Liberty Walking Tour</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 336379P3</t>
+          <t>PRODUCTCODE: 423559P2</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: 60 minute boat cruise of the Statue of Liberty and Ellis Island with a live English speaking tour guide. There is a cash bar on board and food for purchase at the concession stand.</t>
+          <t>Summarized description: Liberty Island ferry tour puts you at the center of the experience of this iconic landmark. Your expert guide will share the history, fun facts, and details you would certainly miss if you went on your own.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Landmark 60-minute NYC Cruise Near the Statue of Liberty </t>
+          <t>Title: The Statue of Liberty Walking Guided Tour</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 221092P6</t>
+          <t>PRODUCTCODE: 43581P7</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: From The Manhattan At Times Square Hotel (790 7th Ave, New York, NY 10019), you will be accompanied by a guide in Spanish who will take you through Midtown Manhattan to Baterry Park in Downtown. The guide will explain each detail and monument to you until its completion.</t>
+          <t>Summarized description: Our tours are fun and engaging, never dull &amp; boring, and have been carefully and thoughtfully designed for the enjoyment of all ages. For a more intimate, private tour feel at a public tour price, tours generally consist of 16 Guests, or less.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Tour to the Statue of Liberty and Ellis Island in Spanish</t>
+          <t>Title: Statue Of Liberty &amp; Ellis Island Small-Group Tour</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 324821P297</t>
+          <t>PRODUCTCODE: 268756P642</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: This option includes tickets for a round-way ferry cruise and access to the Statue of Liberty Pedestal. This option includes a 1,5-hour transfer time and a guided tour of Liberty Island and Ellis Island.</t>
+          <t>Summarized description: Walk in the footsteps of millions of immigrants as you step onto Liberty Island. With our exclusive Skip The Line ticket, you won't waste a moment standing in long queues.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty’s Pedestal &amp; Ellis Island Guided Tour</t>
+          <t>Title: New York Statue of Liberty and Ellis Island: Skip The Line Ticket</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 151846P184</t>
+          <t>PRODUCTCODE: 255071P17</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: One World Observatory, Statue of Liberty, 9/11 Memorial Pools, Small Group of 20. Professional tour escort. One World Trade Center.</t>
+          <t>Summarized description: Tour the world-class attractions Statue of Liberty, Ellis Island National Immigration Museum, Statue of liberty Museum and Ellis Island. Tour at your own pace with accompanying audio guides with multilingual guides.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Complete Lower Manhattan Tour: Statue of Liberty, Ellis Island</t>
+          <t>Title: Statue of Liberty and Ellis Island Audio Guide Tour (Priority Access)</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Modern Attractions']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 43581P7</t>
+          <t>PRODUCTCODE: 237089P4</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: Our tours are fun and engaging, never dull &amp; boring, and have been carefully and thoughtfully designed for the enjoyment of all ages. For a more intimate, private tour feel at a public tour price, tours generally consist of 16 Guests, or less.</t>
+          <t>Summarized description: Explore Liberty Island &amp; Ellis Island independently with the audio guides, available in 9 languages. Join the live guided tour of Battery Park in English for 30 minutes and guaranteed access to the Statue of Liberty Pedestal and Ellis Island.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Statue Of Liberty &amp; Ellis Island Small-Group Tour</t>
+          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Guided Tour</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 268756P642</t>
+          <t>PRODUCTCODE: 255730P260</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: Walk in the footsteps of millions of immigrants as you step onto Liberty Island. With our exclusive Skip The Line ticket, you won't waste a moment standing in long queues.</t>
+          <t>Summarized description: You will learn about the remarkable history of the Statue of Liberty. From here, you will also be able to enjoy a breathtaking view over the Manhattan skylines and harbour. At Ellis Island you will discover the many extraordinary stories of families journeying to New York City.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: New York Statue of Liberty and Ellis Island: Skip The Line Ticket</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island: Private Half-Day Guided Tour</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255071P17</t>
+          <t>PRODUCTCODE: 324821P2</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Tour the world-class attractions Statue of Liberty, Ellis Island National Immigration Museum, Statue of liberty Museum and Ellis Island. Tour at your own pace with accompanying audio guides with multilingual guides.</t>
+          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Visit New York’s top attraction - the majestic Lady Liberty!</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Audio Guide Tour (Priority Access)</t>
+          <t xml:space="preserve">Title: Skip-the-Line Statue of Liberty &amp; Ellis Island Guided Tour </t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 237089P4</t>
+          <t>PRODUCTCODE: 90219P71</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Liberty Island &amp; Ellis Island independently with the audio guides, available in 9 languages. Join the live guided tour of Battery Park in English for 30 minutes and guaranteed access to the Statue of Liberty Pedestal and Ellis Island.</t>
+          <t>Summarized description: Tour at your own pace with multilingual audio guides at both Liberty Island and Ellis Island. Enjoy personalised service as your onsite GetYourGuide Guest Relations Team help you with a hassle-free check-in.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Guided Tour</t>
+          <t>Title: Best NYC Tour: Priority or Flexible Statue of Liberty Ticket</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 263477P6</t>
+          <t>PRODUCTCODE: 368349P502</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: There are 354 steps leading up to the top of the statue. The cost of the trip does not include the cost of getting to and from the island.</t>
+          <t>Summarized description: Book a 1,5-hour round-trip transfer to the Statue of Liberty on Liberty Island and the Immigration Museum on Ellis Island. Get up close and personal with New York City's most iconic symbol.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: Boat trip (Ellis Island, Statue of Liberty)</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255730P260</t>
+          <t>PRODUCTCODE: 34997P6</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: You will learn about the remarkable history of the Statue of Liberty. From here, you will also be able to enjoy a breathtaking view over the Manhattan skylines and harbour. At Ellis Island you will discover the many extraordinary stories of families journeying to New York City.</t>
+          <t>Summarized description: NYC certified expert tour guide to the Statue of Liberty and the Museum. Tour includes Ellis Island, the Museum of Immigration and the Ellis Island Visitors' Center.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island: Private Half-Day Guided Tour</t>
+          <t>Title: Statue of Liberty and Ellis Island Small-Group Guided Tour</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 324821P2</t>
+          <t>PRODUCTCODE: 90219P120</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Visit New York’s top attraction - the majestic Lady Liberty!</t>
+          <t>Summarized description: Visit the Statue of Liberty and Ellis Island at your own pace. Get guaranteed access to the pedestal of the statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Skip-the-Line Statue of Liberty &amp; Ellis Island Guided Tour </t>
+          <t>Title: Best NYC Statue of Liberty Pedestal, Ellis Island and Pre-Ferry Tour</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Cruises', 'City Tours']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368349P502</t>
+          <t>PRODUCTCODE: 15081P221</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: Book a 1,5-hour round-trip transfer to the Statue of Liberty on Liberty Island and the Immigration Museum on Ellis Island. Get up close and personal with New York City's most iconic symbol.</t>
+          <t>Summarized description: Self-guided audio tour in 9 languages. Fast Track entry to the ferry line and a tour guide to escort you. Statue of Liberty and Ellis Island National Immigration Museum.</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
+          <t>Title: Statue of Liberty and Ellis Island Ferry Ticket with optional Pedestal Upgrade</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 34997P6</t>
+          <t>PRODUCTCODE: 302481P160</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Summarized description: NYC certified expert tour guide to the Statue of Liberty and the Museum. Tour includes Ellis Island, the Museum of Immigration and the Ellis Island Visitors' Center.</t>
+          <t>Summarized description: The mobile app helps you explore the Statue of Liberty and Ellis Island with a private audio tour (included). You will have a ferry ticket and entrance tickets with a PDF we will send to you. The audio tour has clean navigation, filled with exciting stories from professional guides.</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Small-Group Guided Tour</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island Tickets with Self-Guided Audio Tour</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20377,7 +20377,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr"/>
@@ -20392,7 +20392,7 @@
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P120</t>
+          <t>PRODUCTCODE: 255071P4</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Statue of Liberty and Ellis Island at your own pace. Get guaranteed access to the pedestal of the statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
+          <t>Summarized description: Explore with audio guides or upgrade to include a fully-escorted guided tour of Liberty Island and Ellis Island. Enjoy sought after access to the pedestal of the Statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>Title: Best NYC Statue of Liberty Pedestal, Ellis Island and Pre-Ferry Tour</t>
+          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20452,7 +20452,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1331" t="inlineStr"/>
@@ -20467,7 +20467,7 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 15081P221</t>
+          <t>PRODUCTCODE: 186143P67</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Summarized description: Self-guided audio tour in 9 languages. Fast Track entry to the ferry line and a tour guide to escort you. Statue of Liberty and Ellis Island National Immigration Museum.</t>
+          <t>Summarized description: Get guaranteed access to the pedestal of the Statue of Liberty. Upgrade to enjoy the services of a live guide during the pre-ferry tour. See the Immigration Museum on Ellis Island.</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Ferry Ticket with optional Pedestal Upgrade</t>
+          <t>Title: NYC Early Access Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20542,7 +20542,7 @@
     <row r="1337">
       <c r="A1337" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 302481P160</t>
+          <t>PRODUCTCODE: 255071P8</t>
         </is>
       </c>
       <c r="B1337" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Summarized description: The mobile app helps you explore the Statue of Liberty and Ellis Island with a private audio tour (included). You will have a ferry ticket and entrance tickets with a PDF we will send to you. The audio tour has clean navigation, filled with exciting stories from professional guides.</t>
+          <t>Summarized description: Take a guided tour of the Statue of Liberty and Ellis Island with an expert. You’ll have early reserve line access to the Statue Ferry, and have ample time to explore these 2 important attractions on an express 2-hour or 4-hour tour.</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island Tickets with Self-Guided Audio Tour</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island with Pedestal Access : Exclusive Guided Tour</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20602,7 +20602,7 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr"/>
@@ -20617,7 +20617,7 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255071P4</t>
+          <t>PRODUCTCODE: 13616P20</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr"/>
@@ -20632,7 +20632,7 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Summarized description: Explore with audio guides or upgrade to include a fully-escorted guided tour of Liberty Island and Ellis Island. Enjoy sought after access to the pedestal of the Statue of Liberty. Take a 30-minute live guided tour in English of Battery Park.</t>
+          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>Title: New York : Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
         </is>
       </c>
       <c r="B1344" t="inlineStr"/>
@@ -20677,7 +20677,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1346" t="inlineStr"/>
@@ -20692,7 +20692,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 186143P67</t>
+          <t>PRODUCTCODE: 106680P1</t>
         </is>
       </c>
       <c r="B1347" t="inlineStr"/>
@@ -20707,7 +20707,7 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>Summarized description: Get guaranteed access to the pedestal of the Statue of Liberty. Upgrade to enjoy the services of a live guide during the pre-ferry tour. See the Immigration Museum on Ellis Island.</t>
+          <t>Summarized description:  YES Tours NYC offers tours of the Statue of Liberty and Ellis Island. All guides have family that came through Ellis Island, and offer expert stories, memories and narration. Ferry tickets are an additional $18.50 per person.</t>
         </is>
       </c>
       <c r="B1348" t="inlineStr"/>
@@ -20722,7 +20722,7 @@
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>Title: NYC Early Access Statue of Liberty Pedestal, Ellis Island &amp; Pre-Ferry Tour</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr"/>
@@ -20752,7 +20752,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr"/>
@@ -20767,7 +20767,7 @@
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255071P8</t>
+          <t>PRODUCTCODE: 378258P1</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr"/>
@@ -20782,7 +20782,7 @@
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>Summarized description: Take a guided tour of the Statue of Liberty and Ellis Island with an expert. You’ll have early reserve line access to the Statue Ferry, and have ample time to explore these 2 important attractions on an express 2-hour or 4-hour tour.</t>
+          <t>Summarized description: Get up close and personal with New York City's most iconic symbol, the majestic Statue of Liberty. Take a ferry cruise to Liberty Island with a Private Guide. Extended options: private transfers and Ellis Island tour.</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr"/>
@@ -20797,7 +20797,7 @@
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island with Pedestal Access : Exclusive Guided Tour</t>
+          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr"/>
@@ -20827,7 +20827,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr"/>
@@ -20842,7 +20842,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13616P20</t>
+          <t>PRODUCTCODE: 195909P8</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr"/>
@@ -20857,7 +20857,7 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close and personal with Ellis Island and the Statue of Liberty on this 4-hour tour. Enjoy priority boarding on the ferry and then take in the amazing views of the Manhattan skyline.</t>
+          <t>Summarized description: Explore with audio guides in 9 languages or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island in English. Take a 30 minute orientation tour in English of the Statue of Liberty and Ellis Island with a live English speaking tour guide.</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr"/>
@@ -20872,7 +20872,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour - Groups Option</t>
+          <t>Title: Skip the Line Statue of Liberty Pedestal, Ellis Island &amp; Orientation Tour- Group</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr"/>
@@ -20902,7 +20902,7 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr"/>
@@ -20917,7 +20917,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 106680P1</t>
+          <t>PRODUCTCODE: 368349P494</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr"/>
@@ -20932,7 +20932,7 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>Summarized description:  YES Tours NYC offers tours of the Statue of Liberty and Ellis Island. All guides have family that came through Ellis Island, and offer expert stories, memories and narration. Ferry tickets are an additional $18.50 per person.</t>
+          <t>Summarized description: Discover the history and symbolism of the Statue of Liberty with a 5-Star Expert Guide. Take a scenic ferry ride from Downtown New York to Liberty Island. See Lady Liberty up close and snap your souvenir photo. Listen to fun and engaging live commentary in 1 language of your choice.</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr"/>
@@ -20947,7 +20947,7 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour</t>
+          <t>Title: NYC to The Statue of Liberty Guided Tour by Ferry Cruise</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1366" t="inlineStr"/>
@@ -20992,7 +20992,7 @@
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 237089P11</t>
+          <t>PRODUCTCODE: 42097P15</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr"/>
@@ -21007,7 +21007,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>Summarized description: Ellis Island is home to America’s Immigration Museum and was the spot where tens of millions of immigrants took their first steps towards becoming Americans. Enjoy a small party, live guide, and Ellis Island personal headset radio.</t>
+          <t>Summarized description: Save time in the Ferry Line with Priority "Reserve Line" Ferry Tickets to the Statue of Liberty &amp; Ellis Island. Enjoy personalized service as our onsite Guest Relations Team helps you with a hassle-free check-in experience.</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr"/>
@@ -21022,7 +21022,7 @@
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>Title: NYC : Exclusive Statue of Liberty Pedestal Express &amp; Ellis Island</t>
+          <t>Title: Statue of Liberty and Ellis Island Tour</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr"/>
@@ -21067,7 +21067,7 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 378258P1</t>
+          <t>PRODUCTCODE: 241402P4</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr"/>
@@ -21082,7 +21082,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>Summarized description: Get up close and personal with New York City's most iconic symbol, the majestic Statue of Liberty. Take a ferry cruise to Liberty Island with a Private Guide. Extended options: private transfers and Ellis Island tour.</t>
+          <t>Summarized description: You're purchasing a Statue of Liberty ticket with INSIDE access to the Pedestal. These tickets normally sell out months in advance. Best of all - your ticket comes with concierge service.</t>
         </is>
       </c>
       <c r="B1373" t="inlineStr"/>
@@ -21097,7 +21097,7 @@
     <row r="1374">
       <c r="A1374" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty &amp; Ellis Island by Ferry with Private Guide</t>
+          <t>Title: Skip the Line: Statue of Liberty with Pedestal Access and Ellis Island Ticket</t>
         </is>
       </c>
       <c r="B1374" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 195909P8</t>
+          <t>PRODUCTCODE: 90219P278</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr"/>
@@ -21157,7 +21157,7 @@
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>Summarized description: Explore with audio guides in 9 languages or upgrade to a fully-escorted tour of Liberty Island &amp; Ellis Island in English. Take a 30 minute orientation tour in English of the Statue of Liberty and Ellis Island with a live English speaking tour guide.</t>
+          <t>Summarized description: Climb to the pedestal of the Statue of Liberty for impressive views of Manhattan. Walk the Stairs of Separation at Ellis Island Immigration Museum.</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr"/>
@@ -21172,7 +21172,7 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>Title: Skip the Line Statue of Liberty Pedestal, Ellis Island &amp; Orientation Tour- Group</t>
+          <t>Title: New York City Greatest Statue of Liberty &amp; Ellis Island Early Access Tour</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr"/>
@@ -21202,7 +21202,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr"/>
@@ -21217,7 +21217,7 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 368349P494</t>
+          <t>PRODUCTCODE: 175348P13</t>
         </is>
       </c>
       <c r="B1382" t="inlineStr"/>
@@ -21232,7 +21232,7 @@
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the history and symbolism of the Statue of Liberty with a 5-Star Expert Guide. Take a scenic ferry ride from Downtown New York to Liberty Island. See Lady Liberty up close and snap your souvenir photo. Listen to fun and engaging live commentary in 1 language of your choice.</t>
+          <t>Summarized description: 30+ New York Sights in one tour! Fun local guide will guide you on an exploration of New York’s major landmarks. After the walking tour you will visit New York's famous Statue of Liberty.</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr"/>
@@ -21247,7 +21247,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>Title: NYC to The Statue of Liberty Guided Tour by Ferry Cruise</t>
+          <t>Title: Visit Ellis Island &amp; Statue of Liberty &amp; See 30 New York Sights (Walking Tour)</t>
         </is>
       </c>
       <c r="B1384" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr"/>
@@ -21292,7 +21292,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 42097P15</t>
+          <t>PRODUCTCODE: 75760P157</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Summarized description: Save time in the Ferry Line with Priority "Reserve Line" Ferry Tickets to the Statue of Liberty &amp; Ellis Island. Enjoy personalized service as our onsite Guest Relations Team helps you with a hassle-free check-in experience.</t>
+          <t>Summarized description: 20+ New York Sights in one tour! Fun local guide!! Enjoy a seamless visit to the Statue of Liberty and Ellis Island in New York Harbour. This will give you the opportunity to see New York in 1 day!</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr"/>
@@ -21322,7 +21322,7 @@
     <row r="1389">
       <c r="A1389" t="inlineStr">
         <is>
-          <t>Title: Statue of Liberty and Ellis Island Tour</t>
+          <t xml:space="preserve">Title: New York: Little Italy &amp; China Town Walking Tour &amp; Visit The Statue of Liberty </t>
         </is>
       </c>
       <c r="B1389" t="inlineStr"/>
@@ -21352,7 +21352,7 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Modern Attractions', 'City Tours']</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr"/>
@@ -21367,7 +21367,7 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 241402P4</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr"/>
@@ -21379,306 +21379,6 @@
       <c r="H1392" t="inlineStr"/>
       <c r="I1392" t="inlineStr"/>
     </row>
-    <row r="1393">
-      <c r="A1393" t="inlineStr">
-        <is>
-          <t>Summarized description: You're purchasing a Statue of Liberty ticket with INSIDE access to the Pedestal. These tickets normally sell out months in advance. Best of all - your ticket comes with concierge service.</t>
-        </is>
-      </c>
-      <c r="B1393" t="inlineStr"/>
-      <c r="C1393" t="inlineStr"/>
-      <c r="D1393" t="inlineStr"/>
-      <c r="E1393" t="inlineStr"/>
-      <c r="F1393" t="inlineStr"/>
-      <c r="G1393" t="inlineStr"/>
-      <c r="H1393" t="inlineStr"/>
-      <c r="I1393" t="inlineStr"/>
-    </row>
-    <row r="1394">
-      <c r="A1394" t="inlineStr">
-        <is>
-          <t>Title: Skip the Line: Statue of Liberty with Pedestal Access and Ellis Island Ticket</t>
-        </is>
-      </c>
-      <c r="B1394" t="inlineStr"/>
-      <c r="C1394" t="inlineStr"/>
-      <c r="D1394" t="inlineStr"/>
-      <c r="E1394" t="inlineStr"/>
-      <c r="F1394" t="inlineStr"/>
-      <c r="G1394" t="inlineStr"/>
-      <c r="H1394" t="inlineStr"/>
-      <c r="I1394" t="inlineStr"/>
-    </row>
-    <row r="1395">
-      <c r="A1395" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1395" t="inlineStr"/>
-      <c r="C1395" t="inlineStr"/>
-      <c r="D1395" t="inlineStr"/>
-      <c r="E1395" t="inlineStr"/>
-      <c r="F1395" t="inlineStr"/>
-      <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr"/>
-      <c r="I1395" t="inlineStr"/>
-    </row>
-    <row r="1396">
-      <c r="A1396" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1396" t="inlineStr"/>
-      <c r="C1396" t="inlineStr"/>
-      <c r="D1396" t="inlineStr"/>
-      <c r="E1396" t="inlineStr"/>
-      <c r="F1396" t="inlineStr"/>
-      <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr"/>
-      <c r="I1396" t="inlineStr"/>
-    </row>
-    <row r="1397">
-      <c r="A1397" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 31003P36</t>
-        </is>
-      </c>
-      <c r="B1397" t="inlineStr"/>
-      <c r="C1397" t="inlineStr"/>
-      <c r="D1397" t="inlineStr"/>
-      <c r="E1397" t="inlineStr"/>
-      <c r="F1397" t="inlineStr"/>
-      <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr"/>
-      <c r="I1397" t="inlineStr"/>
-    </row>
-    <row r="1398">
-      <c r="A1398" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the Statue of Liberty Museum and Ellis Island. Tour the Lower East Side, the ultimate immigrant neighborhood. Tour includes samples from The Pickle Guys, Kossar’s and Yonah Schimmel Knish.</t>
-        </is>
-      </c>
-      <c r="B1398" t="inlineStr"/>
-      <c r="C1398" t="inlineStr"/>
-      <c r="D1398" t="inlineStr"/>
-      <c r="E1398" t="inlineStr"/>
-      <c r="F1398" t="inlineStr"/>
-      <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr"/>
-      <c r="I1398" t="inlineStr"/>
-    </row>
-    <row r="1399">
-      <c r="A1399" t="inlineStr">
-        <is>
-          <t>Title: Statue of Liberty Ellis Island and Tastes of the Lower East Side Combo Tour</t>
-        </is>
-      </c>
-      <c r="B1399" t="inlineStr"/>
-      <c r="C1399" t="inlineStr"/>
-      <c r="D1399" t="inlineStr"/>
-      <c r="E1399" t="inlineStr"/>
-      <c r="F1399" t="inlineStr"/>
-      <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr"/>
-      <c r="I1399" t="inlineStr"/>
-    </row>
-    <row r="1400">
-      <c r="A1400" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1400" t="inlineStr"/>
-      <c r="C1400" t="inlineStr"/>
-      <c r="D1400" t="inlineStr"/>
-      <c r="E1400" t="inlineStr"/>
-      <c r="F1400" t="inlineStr"/>
-      <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr"/>
-      <c r="I1400" t="inlineStr"/>
-    </row>
-    <row r="1401">
-      <c r="A1401" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1401" t="inlineStr"/>
-      <c r="C1401" t="inlineStr"/>
-      <c r="D1401" t="inlineStr"/>
-      <c r="E1401" t="inlineStr"/>
-      <c r="F1401" t="inlineStr"/>
-      <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr"/>
-      <c r="I1401" t="inlineStr"/>
-    </row>
-    <row r="1402">
-      <c r="A1402" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90219P278</t>
-        </is>
-      </c>
-      <c r="B1402" t="inlineStr"/>
-      <c r="C1402" t="inlineStr"/>
-      <c r="D1402" t="inlineStr"/>
-      <c r="E1402" t="inlineStr"/>
-      <c r="F1402" t="inlineStr"/>
-      <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr"/>
-      <c r="I1402" t="inlineStr"/>
-    </row>
-    <row r="1403">
-      <c r="A1403" t="inlineStr">
-        <is>
-          <t>Summarized description: Climb to the pedestal of the Statue of Liberty for impressive views of Manhattan. Walk the Stairs of Separation at Ellis Island Immigration Museum.</t>
-        </is>
-      </c>
-      <c r="B1403" t="inlineStr"/>
-      <c r="C1403" t="inlineStr"/>
-      <c r="D1403" t="inlineStr"/>
-      <c r="E1403" t="inlineStr"/>
-      <c r="F1403" t="inlineStr"/>
-      <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr"/>
-      <c r="I1403" t="inlineStr"/>
-    </row>
-    <row r="1404">
-      <c r="A1404" t="inlineStr">
-        <is>
-          <t>Title: New York City Greatest Statue of Liberty &amp; Ellis Island Early Access Tour</t>
-        </is>
-      </c>
-      <c r="B1404" t="inlineStr"/>
-      <c r="C1404" t="inlineStr"/>
-      <c r="D1404" t="inlineStr"/>
-      <c r="E1404" t="inlineStr"/>
-      <c r="F1404" t="inlineStr"/>
-      <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr"/>
-      <c r="I1404" t="inlineStr"/>
-    </row>
-    <row r="1405">
-      <c r="A1405" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1405" t="inlineStr"/>
-      <c r="C1405" t="inlineStr"/>
-      <c r="D1405" t="inlineStr"/>
-      <c r="E1405" t="inlineStr"/>
-      <c r="F1405" t="inlineStr"/>
-      <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr"/>
-      <c r="I1405" t="inlineStr"/>
-    </row>
-    <row r="1406">
-      <c r="A1406" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
-        </is>
-      </c>
-      <c r="B1406" t="inlineStr"/>
-      <c r="C1406" t="inlineStr"/>
-      <c r="D1406" t="inlineStr"/>
-      <c r="E1406" t="inlineStr"/>
-      <c r="F1406" t="inlineStr"/>
-      <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr"/>
-      <c r="I1406" t="inlineStr"/>
-    </row>
-    <row r="1407">
-      <c r="A1407" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 175348P13</t>
-        </is>
-      </c>
-      <c r="B1407" t="inlineStr"/>
-      <c r="C1407" t="inlineStr"/>
-      <c r="D1407" t="inlineStr"/>
-      <c r="E1407" t="inlineStr"/>
-      <c r="F1407" t="inlineStr"/>
-      <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr"/>
-      <c r="I1407" t="inlineStr"/>
-    </row>
-    <row r="1408">
-      <c r="A1408" t="inlineStr">
-        <is>
-          <t>Summarized description: 30+ New York Sights in one tour! Fun local guide will guide you on an exploration of New York’s major landmarks. After the walking tour you will visit New York's famous Statue of Liberty.</t>
-        </is>
-      </c>
-      <c r="B1408" t="inlineStr"/>
-      <c r="C1408" t="inlineStr"/>
-      <c r="D1408" t="inlineStr"/>
-      <c r="E1408" t="inlineStr"/>
-      <c r="F1408" t="inlineStr"/>
-      <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr"/>
-      <c r="I1408" t="inlineStr"/>
-    </row>
-    <row r="1409">
-      <c r="A1409" t="inlineStr">
-        <is>
-          <t>Title: Visit Ellis Island &amp; Statue of Liberty &amp; See 30 New York Sights (Walking Tour)</t>
-        </is>
-      </c>
-      <c r="B1409" t="inlineStr"/>
-      <c r="C1409" t="inlineStr"/>
-      <c r="D1409" t="inlineStr"/>
-      <c r="E1409" t="inlineStr"/>
-      <c r="F1409" t="inlineStr"/>
-      <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr"/>
-      <c r="I1409" t="inlineStr"/>
-    </row>
-    <row r="1410">
-      <c r="A1410" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1410" t="inlineStr"/>
-      <c r="C1410" t="inlineStr"/>
-      <c r="D1410" t="inlineStr"/>
-      <c r="E1410" t="inlineStr"/>
-      <c r="F1410" t="inlineStr"/>
-      <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr"/>
-      <c r="I1410" t="inlineStr"/>
-    </row>
-    <row r="1411">
-      <c r="A1411" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Modern Attractions']</t>
-        </is>
-      </c>
-      <c r="B1411" t="inlineStr"/>
-      <c r="C1411" t="inlineStr"/>
-      <c r="D1411" t="inlineStr"/>
-      <c r="E1411" t="inlineStr"/>
-      <c r="F1411" t="inlineStr"/>
-      <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr"/>
-      <c r="I1411" t="inlineStr"/>
-    </row>
-    <row r="1412">
-      <c r="A1412" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1412" t="inlineStr"/>
-      <c r="C1412" t="inlineStr"/>
-      <c r="D1412" t="inlineStr"/>
-      <c r="E1412" t="inlineStr"/>
-      <c r="F1412" t="inlineStr"/>
-      <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr"/>
-      <c r="I1412" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
